--- a/ABTest/ABDA.xlsx
+++ b/ABTest/ABDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/somikraha/PycharmProjects/DA Tools/ABTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3742074A-EF01-5442-8875-55787EE3A717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9AA395-F461-7D41-BB8E-EB8EB64FB01F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{10366E7F-EA89-9541-A813-9FA5048F813E}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="82">
   <si>
     <t>License:</t>
   </si>
@@ -334,6 +334,15 @@
   </si>
   <si>
     <t>Narrative</t>
+  </si>
+  <si>
+    <t>Title of Sensitivity Chart (number of heads in Control)</t>
+  </si>
+  <si>
+    <t>Axis Title of Sensitivity Chart (number of heads in Control)</t>
+  </si>
+  <si>
+    <t>Number of heads in Control</t>
   </si>
 </sst>
 </file>
@@ -682,7 +691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -799,6 +808,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3538,301 +3548,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8099149070669183E-123</c:v>
+                  <c:v>9.0229625404936674E-26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1683949354315126E-39</c:v>
+                  <c:v>3.3888940387239594E-20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5156781069372784E-8</c:v>
+                  <c:v>5.6891882542424993E-17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.855761467551853</c:v>
+                  <c:v>1.0410915688638785E-14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1255016451790811E-2</c:v>
+                  <c:v>5.6504459001828797E-13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0712498305479791E-13</c:v>
+                  <c:v>1.4205342667235647E-11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6458205939669688E-30</c:v>
+                  <c:v>2.0983077399315424E-10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8907258346775102E-51</c:v>
+                  <c:v>2.0988019478028942E-9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5468817234221574E-75</c:v>
+                  <c:v>1.5577843200581113E-8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9064587679579399E-102</c:v>
+                  <c:v>9.1329188617706099E-8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5187270774303155E-131</c:v>
+                  <c:v>4.4220538470488237E-7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.3567676233127101E-163</c:v>
+                  <c:v>1.8273769774532406E-6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.602991346942932E-196</c:v>
+                  <c:v>6.6078182904748049E-6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0044409277665833E-230</c:v>
+                  <c:v>2.1317229102789802E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.7957105965704427E-267</c:v>
+                  <c:v>6.2303502512440516E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3758544505370533E-304</c:v>
+                  <c:v>1.6702111722645313E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>4.1485135565821836E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>9.6272551007666385E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2.1020037112605742E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>4.3435526167586247E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>8.5372168300701101E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>1.6029360238695819E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>2.8857496956992433E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>4.9974186596088481E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>8.3483728734924323E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.13486565898137426</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.21115000623932928</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.32100244386923321</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.47467468842733329</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.68377839594679346</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.96085046429092502</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>1.3186943166805503</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>1.7695046150205485</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>2.3238100247581235</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>2.9892972281204786</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>3.7696057654646817</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>4.6632036265545018</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>5.6624642466872626</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>6.7530639497866805</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>7.91380349829201</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>9.1169284814691842</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>10.328982794076364</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>11.512181072450177</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>12.626234603983255</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>13.630516579341604</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>14.486412324833633</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>15.159673353306575</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>15.622584362153434</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>15.855761467551851</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>15.84942761869647</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>15.604054743820441</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>15.130317309364504</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>14.448362822081053</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>13.586464897050361</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>12.57917749245731</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>11.465149295429114</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>10.284781081143509</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>9.0779141796777338</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>7.8817251467939009</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>6.7289725832397718</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>5.6467007308973258</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>4.6554561000731978</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>3.7690235399717404</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>2.9946422236014114</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>2.3336244937806625</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>1.7822745822591468</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>1.3329914215415488</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>0.97543999981687435</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>0.69768734495086515</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>0.48721949913020535</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>0.33178132229577229</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>0.22000804037958591</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>0.1418428537226496</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>8.8756063065188642E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>5.3796415144768656E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>3.1514091659309136E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>1.7797274661792713E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>9.6615636749996393E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>5.0251981734421389E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>2.494715872856761E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>1.1769036542033388E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>5.2491132268589686E-4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>2.2000920171087566E-4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>8.604143858700711E-5</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>3.1130163050266805E-5</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>1.0312942266190914E-5</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>3.0890698709183633E-6</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>8.2358338892079059E-7</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>1.9161305628324925E-7</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>3.7923865317015682E-8</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>6.1743006765223902E-9</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>7.9011866711609914E-10</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>7.456160005321119E-11</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>4.7256447789997147E-12</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>1.7401283428481755E-13</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>2.9201451064178781E-15</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>1.4164136810037825E-17</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>7.1446269569051658E-21</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>1.4358037276727099E-26</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0</c:v>
@@ -5023,301 +5033,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3339805700671864E-57</c:v>
+                  <c:v>2.390578901401812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3636958873308557E-9</c:v>
+                  <c:v>5.0079403479686722</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>6.5957947658086331</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>7.1672221810408043</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.3770016174646371E-6</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.142274177587302E-21</c:v>
+                  <c:v>6.9963775624237146</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.7230905299874171E-42</c:v>
+                  <c:v>6.3720308610677634</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0210731091546826E-67</c:v>
+                  <c:v>5.5248207262567073</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.461547727773486E-95</c:v>
+                  <c:v>4.6153314297814845</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0306610343522472E-125</c:v>
+                  <c:v>3.74349014763273</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4301301213397307E-158</c:v>
+                  <c:v>2.9635300987639246</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.9027132353412703E-193</c:v>
+                  <c:v>2.2982990471079021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4209921391424479E-229</c:v>
+                  <c:v>1.7508190316617334</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4346586028732453E-267</c:v>
+                  <c:v>1.312780623274838</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9359797252966052E-306</c:v>
+                  <c:v>0.97035462732892375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.70790814520589429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.51019944726426647</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.36353215887478391</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.25623723175376895</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.17874851710064008</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.12345410019820444</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>8.4442093802993126E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>5.7213936037516719E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>3.8406871535315391E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>2.5546696271204001E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>1.6838988494568635E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>1.099952557499443E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>7.1205924573532033E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>4.5681222640062856E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>2.904174373521647E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>1.8295516011076866E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>1.1420039651894032E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>7.0623036529934987E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>4.326404493406898E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>2.6251100815632977E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>1.5773826210166146E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>9.3846278041705906E-5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>5.5271437197623353E-5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>3.2217604895886263E-5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>1.8581953309719932E-5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>1.0601895006151355E-5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>5.9820411115894335E-6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>3.3370278347408577E-6</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>1.8398239765488448E-6</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>1.0021909214354729E-6</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>5.3916776398405431E-7</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>2.8636991269895384E-7</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>1.5009983852465768E-7</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>7.7604997092439063E-8</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>3.9559440159084049E-8</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>1.9872026774336675E-8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>9.8317673593685445E-9</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>4.7881570772362518E-9</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>2.2939577725347544E-9</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>1.0804311274098194E-9</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>4.9991688260524124E-10</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>2.2707026467619404E-10</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>1.0116576059697344E-10</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>4.4171379123020151E-11</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>1.8883287357808927E-11</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>7.8960098934889112E-12</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>3.2259782177858753E-12</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>1.2862684549245497E-12</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>4.9988445777141722E-13</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>1.8909540914230623E-13</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>6.9521668074216292E-14</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>2.4801895657576545E-14</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>8.5705579301345991E-15</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>2.8632249514846038E-15</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>9.2279705450289305E-16</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>2.8625463977218991E-16</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>8.5247662679674874E-17</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>2.4303360782011445E-17</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>6.612102699723918E-18</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>1.7107345109822808E-18</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>4.192724593654841E-19</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>9.6910970958345897E-20</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>2.1021339691159764E-20</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>4.2551898864610385E-21</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>7.986705547800487E-22</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>1.3798053363268716E-22</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>2.1756503642101269E-23</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>3.1002973454371139E-24</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>3.9468233132046826E-25</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>4.4278839017975835E-26</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>4.3069924418508606E-27</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>3.5615579862219748E-28</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>2.444279284110952E-29</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>1.3512995447223153E-30</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>5.7956179556716385E-32</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>1.8372574367660709E-33</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>4.0390159684178867E-35</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>5.6483038191010082E-37</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>4.4516742051534185E-39</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>1.6561210550430735E-41</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>2.2092655738484156E-44</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>6.6680624115162812E-48</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>1.9205713476782623E-52</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>7.6003844746044393E-59</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>8.5191901173174606E-70</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0</c:v>
@@ -7523,6 +7533,62 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Current Value</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$287:$C$288</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$287:$D$288</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>662352.94117647049</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C906-0249-93D7-1C2C754D187B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -7541,6 +7607,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Posterior Scale Power</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7736,29 +7857,15 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sensitivity to Heads in Control</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
+        <c:strRef>
+          <c:f>Sheet2!$B$282</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Sensitivity to button-click on home page in Control</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
       </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
@@ -8140,307 +8247,307 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>21816.36726546906</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8797,307 +8904,307 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>299.40119760479041</c:v>
+                  <c:v>50050</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1397.2055888223554</c:v>
+                  <c:v>50600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2594.8103792415168</c:v>
+                  <c:v>51200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3792.4151696606787</c:v>
+                  <c:v>51800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4990.0199600798405</c:v>
+                  <c:v>52400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6187.6247504990024</c:v>
+                  <c:v>53000.000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7385.2295409181634</c:v>
+                  <c:v>53600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8582.8343313373243</c:v>
+                  <c:v>54200.000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9780.4391217564862</c:v>
+                  <c:v>54800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10978.04391217565</c:v>
+                  <c:v>55400.000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12175.648702594812</c:v>
+                  <c:v>56000.000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13373.253493013972</c:v>
+                  <c:v>56600.000000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14570.858283433134</c:v>
+                  <c:v>57199.999999999993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15768.463073852296</c:v>
+                  <c:v>57800</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16966.067864271459</c:v>
+                  <c:v>58399.999999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18163.672654690621</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19361.277445109783</c:v>
+                  <c:v>59600</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20558.882235528941</c:v>
+                  <c:v>60200</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21756.487025948103</c:v>
+                  <c:v>60800</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22954.091816367265</c:v>
+                  <c:v>61399.999999999993</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24151.696606786427</c:v>
+                  <c:v>62000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25349.301397205589</c:v>
+                  <c:v>62600</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26546.906187624751</c:v>
+                  <c:v>63200.000000000007</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27744.510978043912</c:v>
+                  <c:v>63799.999999999993</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28942.115768463074</c:v>
+                  <c:v>64400</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30139.720558882233</c:v>
+                  <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>31337.325349301398</c:v>
+                  <c:v>65600</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>32534.930139720556</c:v>
+                  <c:v>66200.000000000015</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33732.534930139722</c:v>
+                  <c:v>66800</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34930.13972055888</c:v>
+                  <c:v>67399.999999999985</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>36127.744510978038</c:v>
+                  <c:v>67999.999999999985</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>37325.349301397204</c:v>
+                  <c:v>68600</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>38522.954091816362</c:v>
+                  <c:v>69200</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>39720.558882235528</c:v>
+                  <c:v>69800</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>40918.163672654686</c:v>
+                  <c:v>70399.999999999985</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42115.768463073851</c:v>
+                  <c:v>71000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43313.373253493017</c:v>
+                  <c:v>71600</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44510.978043912182</c:v>
+                  <c:v>72200</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45708.582834331341</c:v>
+                  <c:v>72800</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>46906.187624750499</c:v>
+                  <c:v>73400</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>48103.792415169664</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>49301.397205588823</c:v>
+                  <c:v>74600</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>50499.001996007988</c:v>
+                  <c:v>75200</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51696.606786427146</c:v>
+                  <c:v>75800</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>52894.211576846312</c:v>
+                  <c:v>76400</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>54091.81636726547</c:v>
+                  <c:v>77000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>55289.421157684628</c:v>
+                  <c:v>77600</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>56487.025948103794</c:v>
+                  <c:v>78200</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>57684.630738522952</c:v>
+                  <c:v>78800.000000000015</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>58882.235528942118</c:v>
+                  <c:v>79400</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>60079.840319361276</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>61277.445109780441</c:v>
+                  <c:v>80600</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>62475.0499001996</c:v>
+                  <c:v>81200.000000000015</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>63672.654690618765</c:v>
+                  <c:v>81800.000000000015</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>64870.259481037916</c:v>
+                  <c:v>82400</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>66067.864271457089</c:v>
+                  <c:v>83000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>67265.469061876254</c:v>
+                  <c:v>83600.000000000015</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>68463.07385229542</c:v>
+                  <c:v>84200.000000000015</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>69660.678642714571</c:v>
+                  <c:v>84800</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>70858.283433133736</c:v>
+                  <c:v>85400</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>72055.888223552902</c:v>
+                  <c:v>86000</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>73253.493013972067</c:v>
+                  <c:v>86600</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>74451.097804391218</c:v>
+                  <c:v>87200</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>75648.702594810384</c:v>
+                  <c:v>87800</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>76846.307385229549</c:v>
+                  <c:v>88400</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>78043.9121756487</c:v>
+                  <c:v>89000</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>79241.516966067866</c:v>
+                  <c:v>89600</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>80439.121756487031</c:v>
+                  <c:v>90200</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>81636.726546906197</c:v>
+                  <c:v>90799.999999999985</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>82834.331337325348</c:v>
+                  <c:v>91400</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>84031.936127744513</c:v>
+                  <c:v>92000</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>85229.540918163679</c:v>
+                  <c:v>92599.999999999985</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>86427.14570858283</c:v>
+                  <c:v>93199.999999999985</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>87624.750499001995</c:v>
+                  <c:v>93800</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>88822.355289421161</c:v>
+                  <c:v>94400</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>90019.960079840326</c:v>
+                  <c:v>95000</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>91217.564870259477</c:v>
+                  <c:v>95599.999999999985</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>92415.169660678643</c:v>
+                  <c:v>96200</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>93612.774451097808</c:v>
+                  <c:v>96800</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>94810.379241516959</c:v>
+                  <c:v>97400</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>96007.984031936125</c:v>
+                  <c:v>98000</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>97205.58882235529</c:v>
+                  <c:v>98600</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>98403.193612774456</c:v>
+                  <c:v>99200</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>99600.798403193607</c:v>
+                  <c:v>99800</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>100798.40319361277</c:v>
+                  <c:v>100400</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>101996.00798403194</c:v>
+                  <c:v>101000</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>103193.6127744511</c:v>
+                  <c:v>101600</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>104391.21756487025</c:v>
+                  <c:v>102200</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>105588.82235528942</c:v>
+                  <c:v>102800</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>106786.42714570859</c:v>
+                  <c:v>103400</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>107984.03193612774</c:v>
+                  <c:v>104000.00000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>109181.6367265469</c:v>
+                  <c:v>104600</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>110379.24151696607</c:v>
+                  <c:v>105200</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>111576.84630738523</c:v>
+                  <c:v>105800</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>112774.45109780438</c:v>
+                  <c:v>106400.00000000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>113972.05588822355</c:v>
+                  <c:v>106999.99999999999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>115169.66067864271</c:v>
+                  <c:v>107600</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>116367.26546906187</c:v>
+                  <c:v>108199.99999999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>117564.87025948103</c:v>
+                  <c:v>108800.00000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>118762.4750499002</c:v>
+                  <c:v>109399.99999999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>119960.07984031936</c:v>
+                  <c:v>110000.00000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9454,307 +9561,307 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>21516.966067864269</c:v>
+                  <c:v>424950</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20419.161676646705</c:v>
+                  <c:v>424400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19221.556886227543</c:v>
+                  <c:v>423800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18023.952095808381</c:v>
+                  <c:v>423200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16826.347305389219</c:v>
+                  <c:v>422600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15628.742514970058</c:v>
+                  <c:v>422000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14431.137724550896</c:v>
+                  <c:v>421400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13233.532934131736</c:v>
+                  <c:v>420800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12035.928143712574</c:v>
+                  <c:v>420200</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10838.32335329341</c:v>
+                  <c:v>419600</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9640.7185628742482</c:v>
+                  <c:v>419000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8443.1137724550881</c:v>
+                  <c:v>418400</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7245.5089820359262</c:v>
+                  <c:v>417800</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6047.9041916167644</c:v>
+                  <c:v>417200</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4850.2994011976007</c:v>
+                  <c:v>416600</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3652.6946107784388</c:v>
+                  <c:v>416000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2455.0898203592769</c:v>
+                  <c:v>415400</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1257.4850299401187</c:v>
+                  <c:v>414800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>59.88023952095682</c:v>
+                  <c:v>414200</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>413600</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>413000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>412400</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>411800</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>411200</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>410600</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>410000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>409400</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>408800</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>408200</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>407600</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>407000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>406400</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>405800</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>405200</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>404600</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>404000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>403400</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>402800</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>402200</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>401600</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>401000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>400400</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>399800</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>399200</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>398600</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>398000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>397400</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>396800</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>396200</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>395600</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>395000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>394400</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>393800</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>393200</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>392600</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>392000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>391400</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>390800</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>390200</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>389600</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>389000</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>388400</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>387800</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>387200</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>386600</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>386000</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>385400</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>384800</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>384200</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>383600</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>383000</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>382400</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>381800</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>381200</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>380600</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>380000</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>379400</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>378800</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>378200</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>377600</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>377000</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>376400</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>375800</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>375200</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>374600</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>374000</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>373400</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>372800</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>372200</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>371600</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>371000</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>370400</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>369800</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>369200</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>368600</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>368000</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>367400</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>366800</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>366200</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>365600</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>365000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9763,6 +9870,62 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0685-904A-A8B3-ED589A2D2780}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Current Value</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$290:$C$291</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$290:$D$291</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>475000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D49-6B4E-894D-F3C4FB3BD415}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9784,6 +9947,47 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$285</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>number of button-click on home page in Control</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -11701,10 +11905,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05459869-BE16-0B4B-AD45-157736597034}">
-  <dimension ref="B2:V279"/>
+  <dimension ref="B2:V291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="125" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="125" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B290" sqref="B290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12162,7 +12366,7 @@
     </row>
     <row r="83" spans="2:10" ht="26" x14ac:dyDescent="0.3">
       <c r="B83" s="10">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -12183,7 +12387,7 @@
       </c>
       <c r="C86" s="54">
         <f>alpha_experiment_posterior</f>
-        <v>419</v>
+        <v>19.8</v>
       </c>
       <c r="D86" s="25"/>
       <c r="I86" s="24" t="s">
@@ -12191,7 +12395,7 @@
       </c>
       <c r="J86" s="49">
         <f>alpha_control_posterior</f>
-        <v>302</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="87" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -12200,7 +12404,7 @@
       </c>
       <c r="C87" s="55">
         <f>beta_experiment_posterior</f>
-        <v>9601</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="D87" s="27"/>
       <c r="I87" s="26" t="s">
@@ -12208,7 +12412,7 @@
       </c>
       <c r="J87" s="50">
         <f>beta_control_posterior</f>
-        <v>9718</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.2">
@@ -12221,14 +12425,14 @@
       </c>
       <c r="C89" s="32">
         <f>alpha_experiment_posterior/(alpha_experiment_posterior+beta_experiment_posterior)</f>
-        <v>4.1816367265469064E-2</v>
+        <v>0.495</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J89" s="32">
         <f>alpha_control_posterior/(alpha_control_posterior++beta_control_posterior)</f>
-        <v>3.0139720558882234E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
@@ -12237,14 +12441,14 @@
       </c>
       <c r="C90" s="31">
         <f xml:space="preserve"> (alpha_experiment_posterior * beta_experiment_posterior) / ((alpha_experiment_posterior+beta_experiment_posterior)^2 * (1+alpha_experiment_posterior+beta_experiment_posterior))</f>
-        <v>3.9983792729456614E-6</v>
+        <v>6.0969512195121964E-3</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J90" s="31">
         <f xml:space="preserve"> (alpha_control_posterior * beta_control_posterior) / ((alpha_control_posterior+beta_control_posterior)^2 * (1+alpha_control_posterior+beta_control_posterior))</f>
-        <v>2.9170060676094926E-6</v>
+        <v>1.4823170731707315E-3</v>
       </c>
     </row>
     <row r="110" spans="2:14" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12308,23 +12512,23 @@
       </c>
       <c r="C114" s="60">
         <f>_xlfn.BETA.INV(C113,alpha_experiment_posterior,beta_experiment_posterior)</f>
-        <v>3.7984642798667929E-2</v>
+        <v>0.34304695466292034</v>
       </c>
       <c r="D114" s="60">
         <f>_xlfn.BETA.INV(D113,alpha_experiment_posterior,beta_experiment_posterior)</f>
-        <v>3.9274078881806888E-2</v>
+        <v>0.39416269755084438</v>
       </c>
       <c r="E114" s="60">
         <f>_xlfn.BETA.INV(E113,alpha_experiment_posterior,beta_experiment_posterior)</f>
-        <v>4.1785885224929126E-2</v>
+        <v>0.4949158396300794</v>
       </c>
       <c r="F114" s="60">
         <f>_xlfn.BETA.INV(F113,alpha_experiment_posterior,beta_experiment_posterior)</f>
-        <v>4.4397824646043138E-2</v>
+        <v>0.59594824848931716</v>
       </c>
       <c r="G114" s="61">
         <f>_xlfn.BETA.INV(G113,alpha_experiment_posterior,beta_experiment_posterior)</f>
-        <v>4.5821308171857145E-2</v>
+        <v>0.64742706100543757</v>
       </c>
       <c r="I114" s="18" t="str">
         <f>metricOfInterest</f>
@@ -12332,23 +12536,23 @@
       </c>
       <c r="J114" s="60">
         <f>_xlfn.BETA.INV(J113,alpha_control_posterior,beta_control_posterior)</f>
-        <v>2.6882014632661606E-2</v>
+        <v>1.1818922885845042E-2</v>
       </c>
       <c r="K114" s="60">
         <f>_xlfn.BETA.INV(K113,alpha_control_posterior,beta_control_posterior)</f>
-        <v>2.7971918504805415E-2</v>
+        <v>2.2339897177182069E-2</v>
       </c>
       <c r="L114" s="60">
         <f>_xlfn.BETA.INV(L113,alpha_control_posterior,beta_control_posterior)</f>
-        <v>3.010846340876764E-2</v>
+        <v>5.7839702561515126E-2</v>
       </c>
       <c r="M114" s="60">
         <f>_xlfn.BETA.INV(M113,alpha_control_posterior,beta_control_posterior)</f>
-        <v>3.2347689046877348E-2</v>
+        <v>0.11721473961114537</v>
       </c>
       <c r="N114" s="61">
         <f>_xlfn.BETA.INV(N113,alpha_control_posterior,beta_control_posterior)</f>
-        <v>3.3575045463783537E-2</v>
+        <v>0.15831001003915823</v>
       </c>
     </row>
     <row r="115" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -12357,46 +12561,46 @@
       </c>
       <c r="C115" s="63">
         <f>C114*valueOfHead*numUsersAtLaunch</f>
-        <v>37984.642798667926</v>
+        <v>343046.95466292033</v>
       </c>
       <c r="D115" s="63">
         <f>D114*valueOfHead*numUsersAtLaunch</f>
-        <v>39274.07888180689</v>
+        <v>394162.6975508444</v>
       </c>
       <c r="E115" s="63">
         <f>E114*valueOfHead*numUsersAtLaunch</f>
-        <v>41785.885224929123</v>
+        <v>494915.8396300794</v>
       </c>
       <c r="F115" s="63">
         <f>F114*valueOfHead*numUsersAtLaunch</f>
-        <v>44397.82464604314</v>
+        <v>595948.24848931713</v>
       </c>
       <c r="G115" s="66">
         <f>G114*valueOfHead*numUsersAtLaunch</f>
-        <v>45821.308171857141</v>
+        <v>647427.06100543751</v>
       </c>
       <c r="I115" s="21" t="s">
         <v>60</v>
       </c>
       <c r="J115" s="63">
         <f>J114*valueOfHead*numUsersAtLaunch</f>
-        <v>26882.014632661605</v>
+        <v>11818.922885845042</v>
       </c>
       <c r="K115" s="63">
         <f>K114*valueOfHead*numUsersAtLaunch</f>
-        <v>27971.918504805413</v>
+        <v>22339.897177182069</v>
       </c>
       <c r="L115" s="63">
         <f>L114*valueOfHead*numUsersAtLaunch</f>
-        <v>30108.463408767639</v>
+        <v>57839.702561515129</v>
       </c>
       <c r="M115" s="63">
         <f>M114*valueOfHead*numUsersAtLaunch</f>
-        <v>32347.689046877349</v>
+        <v>117214.73961114537</v>
       </c>
       <c r="N115" s="66">
         <f>N114*valueOfHead*numUsersAtLaunch</f>
-        <v>33575.045463783536</v>
+        <v>158310.01003915822</v>
       </c>
     </row>
     <row r="116" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -12406,7 +12610,7 @@
       </c>
       <c r="C117" s="65">
         <f>mean_posterior_experiment*valueOfHead*numUsersAtLaunch</f>
-        <v>41816.36726546906</v>
+        <v>495000</v>
       </c>
       <c r="E117" s="78" t="s">
         <v>71</v>
@@ -12418,7 +12622,7 @@
       </c>
       <c r="J117" s="65">
         <f>mean_posterior_control*valueOfHead*numUsersAtLaunch</f>
-        <v>30139.720558882233</v>
+        <v>65000</v>
       </c>
       <c r="L117" s="78" t="s">
         <v>71</v>
@@ -12460,28 +12664,28 @@
       </c>
       <c r="C119" s="64">
         <f>C117-C118</f>
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="E119" s="57" t="str">
         <f>CONCATENATE(ROUND(C114,3)," to ",ROUND(G114,3))</f>
-        <v>0.038 to 0.046</v>
+        <v>0.343 to 0.647</v>
       </c>
       <c r="F119" s="30"/>
       <c r="G119" s="58" t="str">
         <f>CONCATENATE(TEXT(ROUND(C115,0),"$#,###,##0")," to ",TEXT(ROUND(G115,0),"$#,###,###"))</f>
-        <v>$37,985 to $45,821</v>
+        <v>$343,047 to $647,427</v>
       </c>
       <c r="I119" s="73" t="s">
         <v>73</v>
       </c>
       <c r="L119" s="57" t="str">
         <f>CONCATENATE(ROUND(J114,3)," to ",ROUND(N114,3))</f>
-        <v>0.027 to 0.034</v>
+        <v>0.012 to 0.158</v>
       </c>
       <c r="M119" s="30"/>
       <c r="N119" s="58" t="str">
         <f>CONCATENATE(TEXT(ROUND(J115,0),"$#,###,##0")," to ",TEXT(ROUND(N115,0),"$#,###,###"))</f>
-        <v>$26,882 to $33,575</v>
+        <v>$11,819 to $158,310</v>
       </c>
     </row>
     <row r="120" spans="2:14" ht="26" x14ac:dyDescent="0.3">
@@ -12490,7 +12694,7 @@
       </c>
       <c r="C120" s="64">
         <f>C119-J117</f>
-        <v>-8323.3532934131727</v>
+        <v>410000</v>
       </c>
     </row>
     <row r="121" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -12647,7 +12851,7 @@
       </c>
       <c r="E167" s="46">
         <f>alpha_experiment_prior+numHeads_experiment/posteriorScalePower</f>
-        <v>419</v>
+        <v>19.8</v>
       </c>
       <c r="G167" s="18" t="s">
         <v>39</v>
@@ -12661,7 +12865,7 @@
       </c>
       <c r="J167" s="46">
         <f>alpha_control_prior+numHeads_control/posteriorScalePower</f>
-        <v>302</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="168" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -12677,7 +12881,7 @@
       </c>
       <c r="E168" s="47">
         <f>numTosses_experiment/posteriorScalePower+alpha_experiment_prior+beta_experiment_prior-numHeads_experiment/posteriorScalePower-alpha_experiment_prior</f>
-        <v>9601</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="G168" s="21" t="s">
         <v>40</v>
@@ -12691,7 +12895,7 @@
       </c>
       <c r="J168" s="47">
         <f>numTosses_control/posteriorScalePower+alpha_control_prior+beta_control_prior-numHeads_control/posteriorScalePower-alpha_control_prior</f>
-        <v>9718</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="169" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -12758,11 +12962,11 @@
       </c>
       <c r="N171" s="69">
         <f>mean_posterior_experiment*valueOfHead*numUsersAtLaunch-costOfLaunchingFeature</f>
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="O171" s="69">
         <f>mean_posterior_control*valueOfHead*numUsersAtLaunch</f>
-        <v>30139.720558882233</v>
+        <v>65000</v>
       </c>
       <c r="P171" s="77" t="s">
         <v>67</v>
@@ -12775,11 +12979,11 @@
       </c>
       <c r="T171" s="69">
         <f>mean_posterior_experiment*valueOfHead*numUsersAtLaunch-costOfLaunchingFeature</f>
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U171" s="69">
         <f>mean_posterior_control*valueOfHead*numUsersAtLaunch</f>
-        <v>30139.720558882233</v>
+        <v>65000</v>
       </c>
       <c r="V171" s="77" t="s">
         <v>67</v>
@@ -12843,14 +13047,14 @@
       </c>
       <c r="T172" s="69">
         <f t="dataTable" ref="T172:U272" dt2D="0" dtr="0" r1="I78"/>
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U172" s="69">
-        <v>299.40119760479041</v>
+        <v>50050</v>
       </c>
       <c r="V172" s="70">
         <f>MAX(0,T172-U172)</f>
-        <v>21516.966067864269</v>
+        <v>424950</v>
       </c>
     </row>
     <row r="173" spans="2:22" x14ac:dyDescent="0.2">
@@ -12864,11 +13068,11 @@
       </c>
       <c r="D173" s="54">
         <f t="shared" si="1"/>
-        <v>6.8099149070669183E-123</v>
+        <v>9.0229625404936674E-26</v>
       </c>
       <c r="E173" s="49" cm="1">
         <f t="array" ref="E173">IF($B173=0,0,IF($B173=1,0,_xlfn.BETA.DIST($B173,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>5.8477885629403656E-122</v>
+        <v>2.8490553702122246E-26</v>
       </c>
       <c r="G173" s="24">
         <f>G172+0.01</f>
@@ -12880,11 +13084,11 @@
       </c>
       <c r="I173" s="54" cm="1">
         <f t="array" ref="I173">J173*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>2.3339805700671864E-57</v>
+        <v>2.390578901401812</v>
       </c>
       <c r="J173" s="49" cm="1">
         <f t="array" ref="J173">IF($B173=0,0,IF($B173=1,0,_xlfn.BETA.DIST($B173,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>7.6127942201076067E-56</v>
+        <v>3.9726295762902657</v>
       </c>
       <c r="L173" s="24">
         <v>1</v>
@@ -12911,14 +13115,14 @@
         <v>12</v>
       </c>
       <c r="T173" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U173" s="69">
-        <v>1397.2055888223554</v>
+        <v>50600</v>
       </c>
       <c r="V173" s="70">
         <f t="shared" ref="V173:V236" si="6">MAX(0,T173-U173)</f>
-        <v>20419.161676646705</v>
+        <v>424400</v>
       </c>
     </row>
     <row r="174" spans="2:22" x14ac:dyDescent="0.2">
@@ -12932,11 +13136,11 @@
       </c>
       <c r="D174" s="54">
         <f t="shared" si="1"/>
-        <v>2.1683949354315126E-39</v>
+        <v>3.3888940387239594E-20</v>
       </c>
       <c r="E174" s="49" cm="1">
         <f t="array" ref="E174">IF($B174=0,0,IF($B174=1,0,_xlfn.BETA.DIST($B174,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>1.8620372319476925E-38</v>
+        <v>1.0700639304192917E-20</v>
       </c>
       <c r="G174" s="24">
         <f t="shared" ref="G174:G237" si="8">G173+0.01</f>
@@ -12948,11 +13152,11 @@
       </c>
       <c r="I174" s="54" cm="1">
         <f t="array" ref="I174">J174*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>1.3636958873308557E-9</v>
+        <v>5.0079403479686722</v>
       </c>
       <c r="J174" s="49" cm="1">
         <f t="array" ref="J174">IF($B174=0,0,IF($B174=1,0,_xlfn.BETA.DIST($B174,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>4.447995969717095E-8</v>
+        <v>8.3221231187858553</v>
       </c>
       <c r="L174" s="24">
         <v>2</v>
@@ -12979,14 +13183,14 @@
         <v>24</v>
       </c>
       <c r="T174" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U174" s="69">
-        <v>2594.8103792415168</v>
+        <v>51200</v>
       </c>
       <c r="V174" s="70">
         <f t="shared" si="6"/>
-        <v>19221.556886227543</v>
+        <v>423800</v>
       </c>
     </row>
     <row r="175" spans="2:22" x14ac:dyDescent="0.2">
@@ -13000,11 +13204,11 @@
       </c>
       <c r="D175" s="54">
         <f t="shared" si="1"/>
-        <v>1.5156781069372784E-8</v>
+        <v>5.6891882542424993E-17</v>
       </c>
       <c r="E175" s="49" cm="1">
         <f t="array" ref="E175">IF($B175=0,0,IF($B175=1,0,_xlfn.BETA.DIST($B175,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>1.3015383040468035E-7</v>
+        <v>1.7963958373045712E-17</v>
       </c>
       <c r="G175" s="24">
         <f t="shared" si="8"/>
@@ -13016,11 +13220,11 @@
       </c>
       <c r="I175" s="54" cm="1">
         <f t="array" ref="I175">J175*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>7.1672221810408043</v>
+        <v>6.5957947658086331</v>
       </c>
       <c r="J175" s="49" cm="1">
         <f t="array" ref="J175">IF($B175=0,0,IF($B175=1,0,_xlfn.BETA.DIST($B175,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>233.77481498264495</v>
+        <v>10.960796713476775</v>
       </c>
       <c r="L175" s="24">
         <v>3</v>
@@ -13047,14 +13251,14 @@
         <v>36</v>
       </c>
       <c r="T175" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U175" s="69">
-        <v>3792.4151696606787</v>
+        <v>51800</v>
       </c>
       <c r="V175" s="70">
         <f t="shared" si="6"/>
-        <v>18023.952095808381</v>
+        <v>423200</v>
       </c>
     </row>
     <row r="176" spans="2:22" x14ac:dyDescent="0.2">
@@ -13068,11 +13272,11 @@
       </c>
       <c r="D176" s="54">
         <f t="shared" si="1"/>
-        <v>15.855761467551853</v>
+        <v>1.0410915688638785E-14</v>
       </c>
       <c r="E176" s="49" cm="1">
         <f t="array" ref="E176">IF($B176=0,0,IF($B176=1,0,_xlfn.BETA.DIST($B176,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>136.15609274418372</v>
+        <v>3.2873100290982911E-15</v>
       </c>
       <c r="G176" s="24">
         <f t="shared" si="8"/>
@@ -13084,11 +13288,11 @@
       </c>
       <c r="I176" s="54" cm="1">
         <f t="array" ref="I176">J176*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>5.3770016174646371E-6</v>
+        <v>7.1672221810408043</v>
       </c>
       <c r="J176" s="49" cm="1">
         <f t="array" ref="J176">IF($B176=0,0,IF($B176=1,0,_xlfn.BETA.DIST($B176,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>1.7538280892272256E-4</v>
+        <v>11.910386559318415</v>
       </c>
       <c r="L176" s="24">
         <v>4</v>
@@ -13115,14 +13319,14 @@
         <v>48</v>
       </c>
       <c r="T176" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U176" s="69">
-        <v>4990.0199600798405</v>
+        <v>52400</v>
       </c>
       <c r="V176" s="70">
         <f t="shared" si="6"/>
-        <v>16826.347305389219</v>
+        <v>422600</v>
       </c>
     </row>
     <row r="177" spans="2:22" x14ac:dyDescent="0.2">
@@ -13136,11 +13340,11 @@
       </c>
       <c r="D177" s="54">
         <f t="shared" si="1"/>
-        <v>1.1255016451790811E-2</v>
+        <v>5.6504459001828797E-13</v>
       </c>
       <c r="E177" s="49" cm="1">
         <f t="array" ref="E177">IF($B177=0,0,IF($B177=1,0,_xlfn.BETA.DIST($B177,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>9.6648720844055042E-2</v>
+        <v>1.7841627030769982E-13</v>
       </c>
       <c r="G177" s="24">
         <f t="shared" si="8"/>
@@ -13152,11 +13356,11 @@
       </c>
       <c r="I177" s="54" cm="1">
         <f t="array" ref="I177">J177*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>5.142274177587302E-21</v>
+        <v>6.9963775624237146</v>
       </c>
       <c r="J177" s="49" cm="1">
         <f t="array" ref="J177">IF($B177=0,0,IF($B177=1,0,_xlfn.BETA.DIST($B177,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>1.6772665393790451E-19</v>
+        <v>11.626479433529637</v>
       </c>
       <c r="L177" s="24">
         <v>5</v>
@@ -13183,14 +13387,14 @@
         <v>60</v>
       </c>
       <c r="T177" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U177" s="69">
-        <v>6187.6247504990024</v>
+        <v>53000.000000000007</v>
       </c>
       <c r="V177" s="70">
         <f t="shared" si="6"/>
-        <v>15628.742514970058</v>
+        <v>422000</v>
       </c>
     </row>
     <row r="178" spans="2:22" x14ac:dyDescent="0.2">
@@ -13204,11 +13408,11 @@
       </c>
       <c r="D178" s="54">
         <f t="shared" si="1"/>
-        <v>1.0712498305479791E-13</v>
+        <v>1.4205342667235647E-11</v>
       </c>
       <c r="E178" s="49" cm="1">
         <f t="array" ref="E178">IF($B178=0,0,IF($B178=1,0,_xlfn.BETA.DIST($B178,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>9.19900261988504E-13</v>
+        <v>4.4854234548975822E-12</v>
       </c>
       <c r="G178" s="24">
         <f t="shared" si="8"/>
@@ -13220,11 +13424,11 @@
       </c>
       <c r="I178" s="54" cm="1">
         <f t="array" ref="I178">J178*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>7.7230905299874171E-42</v>
+        <v>6.3720308610677634</v>
       </c>
       <c r="J178" s="49" cm="1">
         <f t="array" ref="J178">IF($B178=0,0,IF($B178=1,0,_xlfn.BETA.DIST($B178,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>2.5190569151294837E-40</v>
+        <v>10.588949080437549</v>
       </c>
       <c r="L178" s="24">
         <v>6</v>
@@ -13251,14 +13455,14 @@
         <v>72</v>
       </c>
       <c r="T178" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U178" s="69">
-        <v>7385.2295409181634</v>
+        <v>53600</v>
       </c>
       <c r="V178" s="70">
         <f t="shared" si="6"/>
-        <v>14431.137724550896</v>
+        <v>421400</v>
       </c>
     </row>
     <row r="179" spans="2:22" x14ac:dyDescent="0.2">
@@ -13272,11 +13476,11 @@
       </c>
       <c r="D179" s="54">
         <f t="shared" si="1"/>
-        <v>2.6458205939669688E-30</v>
+        <v>2.0983077399315424E-10</v>
       </c>
       <c r="E179" s="49" cm="1">
         <f t="array" ref="E179">IF($B179=0,0,IF($B179=1,0,_xlfn.BETA.DIST($B179,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>2.2720106815044065E-29</v>
+        <v>6.6255344716113107E-11</v>
       </c>
       <c r="G179" s="24">
         <f t="shared" si="8"/>
@@ -13288,11 +13492,11 @@
       </c>
       <c r="I179" s="54" cm="1">
         <f t="array" ref="I179">J179*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>8.0210731091546826E-67</v>
+        <v>5.5248207262567073</v>
       </c>
       <c r="J179" s="49" cm="1">
         <f t="array" ref="J179">IF($B179=0,0,IF($B179=1,0,_xlfn.BETA.DIST($B179,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>2.6162505287126513E-65</v>
+        <v>9.1810674845154576</v>
       </c>
       <c r="L179" s="24">
         <v>7</v>
@@ -13319,14 +13523,14 @@
         <v>84</v>
       </c>
       <c r="T179" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U179" s="69">
-        <v>8582.8343313373243</v>
+        <v>54200.000000000007</v>
       </c>
       <c r="V179" s="70">
         <f t="shared" si="6"/>
-        <v>13233.532934131736</v>
+        <v>420800</v>
       </c>
     </row>
     <row r="180" spans="2:22" x14ac:dyDescent="0.2">
@@ -13340,11 +13544,11 @@
       </c>
       <c r="D180" s="54">
         <f t="shared" si="1"/>
-        <v>3.8907258346775102E-51</v>
+        <v>2.0988019478028942E-9</v>
       </c>
       <c r="E180" s="49" cm="1">
         <f t="array" ref="E180">IF($B180=0,0,IF($B180=1,0,_xlfn.BETA.DIST($B180,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>3.3410317673651037E-50</v>
+        <v>6.6270949630613835E-10</v>
       </c>
       <c r="G180" s="24">
         <f t="shared" si="8"/>
@@ -13356,11 +13560,11 @@
       </c>
       <c r="I180" s="54" cm="1">
         <f t="array" ref="I180">J180*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>5.461547727773486E-95</v>
+        <v>4.6153314297814845</v>
       </c>
       <c r="J180" s="49" cm="1">
         <f t="array" ref="J180">IF($B180=0,0,IF($B180=1,0,_xlfn.BETA.DIST($B180,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>1.7814046744030506E-93</v>
+        <v>7.6696912750215009</v>
       </c>
       <c r="L180" s="24">
         <v>8</v>
@@ -13387,14 +13591,14 @@
         <v>96</v>
       </c>
       <c r="T180" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U180" s="69">
-        <v>9780.4391217564862</v>
+        <v>54800</v>
       </c>
       <c r="V180" s="70">
         <f t="shared" si="6"/>
-        <v>12035.928143712574</v>
+        <v>420200</v>
       </c>
     </row>
     <row r="181" spans="2:22" x14ac:dyDescent="0.2">
@@ -13408,11 +13612,11 @@
       </c>
       <c r="D181" s="54">
         <f t="shared" si="1"/>
-        <v>2.5468817234221574E-75</v>
+        <v>1.5577843200581113E-8</v>
       </c>
       <c r="E181" s="49" cm="1">
         <f t="array" ref="E181">IF($B181=0,0,IF($B181=1,0,_xlfn.BETA.DIST($B181,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>2.1870502079158483E-74</v>
+        <v>4.9187988565573011E-9</v>
       </c>
       <c r="G181" s="24">
         <f t="shared" si="8"/>
@@ -13424,11 +13628,11 @@
       </c>
       <c r="I181" s="54" cm="1">
         <f t="array" ref="I181">J181*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>1.0306610343522472E-125</v>
+        <v>3.74349014763273</v>
       </c>
       <c r="J181" s="49" cm="1">
         <f t="array" ref="J181">IF($B181=0,0,IF($B181=1,0,_xlfn.BETA.DIST($B181,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>3.3617290845660522E-124</v>
+        <v>6.220877993324752</v>
       </c>
       <c r="L181" s="24">
         <v>9</v>
@@ -13455,14 +13659,14 @@
         <v>108</v>
       </c>
       <c r="T181" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U181" s="69">
-        <v>10978.04391217565</v>
+        <v>55400.000000000007</v>
       </c>
       <c r="V181" s="70">
         <f t="shared" si="6"/>
-        <v>10838.32335329341</v>
+        <v>419600</v>
       </c>
     </row>
     <row r="182" spans="2:22" x14ac:dyDescent="0.2">
@@ -13476,11 +13680,11 @@
       </c>
       <c r="D182" s="54">
         <f t="shared" si="1"/>
-        <v>2.9064587679579399E-102</v>
+        <v>9.1329188617706099E-8</v>
       </c>
       <c r="E182" s="49" cm="1">
         <f t="array" ref="E182">IF($B182=0,0,IF($B182=1,0,_xlfn.BETA.DIST($B182,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>2.4958250688689802E-101</v>
+        <v>2.8837747482675957E-8</v>
       </c>
       <c r="G182" s="24">
         <f t="shared" si="8"/>
@@ -13492,11 +13696,11 @@
       </c>
       <c r="I182" s="54" cm="1">
         <f t="array" ref="I182">J182*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>1.4301301213397307E-158</v>
+        <v>2.9635300987639246</v>
       </c>
       <c r="J182" s="49" cm="1">
         <f t="array" ref="J182">IF($B182=0,0,IF($B182=1,0,_xlfn.BETA.DIST($B182,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>4.6646859281367062E-157</v>
+        <v>4.9247516213216818</v>
       </c>
       <c r="L182" s="24">
         <v>10</v>
@@ -13523,14 +13727,14 @@
         <v>120</v>
       </c>
       <c r="T182" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U182" s="69">
-        <v>12175.648702594812</v>
+        <v>56000.000000000007</v>
       </c>
       <c r="V182" s="70">
         <f t="shared" si="6"/>
-        <v>9640.7185628742482</v>
+        <v>419000</v>
       </c>
     </row>
     <row r="183" spans="2:22" x14ac:dyDescent="0.2">
@@ -13544,11 +13748,11 @@
       </c>
       <c r="D183" s="54">
         <f t="shared" si="1"/>
-        <v>1.5187270774303155E-131</v>
+        <v>4.4220538470488237E-7</v>
       </c>
       <c r="E183" s="49" cm="1">
         <f t="array" ref="E183">IF($B183=0,0,IF($B183=1,0,_xlfn.BETA.DIST($B183,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>1.3041565063329175E-130</v>
+        <v>1.3962904316360792E-7</v>
       </c>
       <c r="G183" s="24">
         <f t="shared" si="8"/>
@@ -13560,11 +13764,11 @@
       </c>
       <c r="I183" s="54" cm="1">
         <f t="array" ref="I183">J183*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>2.9027132353412703E-193</v>
+        <v>2.2982990471079021</v>
       </c>
       <c r="J183" s="49" cm="1">
         <f t="array" ref="J183">IF($B183=0,0,IF($B183=1,0,_xlfn.BETA.DIST($B183,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>9.4678416881592816E-192</v>
+        <v>3.8192802439386848</v>
       </c>
       <c r="L183" s="24">
         <v>11</v>
@@ -13591,14 +13795,14 @@
         <v>132</v>
       </c>
       <c r="T183" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U183" s="69">
-        <v>13373.253493013972</v>
+        <v>56600.000000000007</v>
       </c>
       <c r="V183" s="70">
         <f t="shared" si="6"/>
-        <v>8443.1137724550881</v>
+        <v>418400</v>
       </c>
     </row>
     <row r="184" spans="2:22" x14ac:dyDescent="0.2">
@@ -13612,11 +13816,11 @@
       </c>
       <c r="D184" s="54">
         <f t="shared" si="1"/>
-        <v>7.3567676233127101E-163</v>
+        <v>1.8273769774532406E-6</v>
       </c>
       <c r="E184" s="49" cm="1">
         <f t="array" ref="E184">IF($B184=0,0,IF($B184=1,0,_xlfn.BETA.DIST($B184,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>6.3173801956282357E-162</v>
+        <v>5.7700540899402754E-7</v>
       </c>
       <c r="G184" s="24">
         <f t="shared" si="8"/>
@@ -13628,11 +13832,11 @@
       </c>
       <c r="I184" s="54" cm="1">
         <f t="array" ref="I184">J184*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>1.4209921391424479E-229</v>
+        <v>1.7508190316617334</v>
       </c>
       <c r="J184" s="49" cm="1">
         <f t="array" ref="J184">IF($B184=0,0,IF($B184=1,0,_xlfn.BETA.DIST($B184,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>4.6348803766479387E-228</v>
+        <v>2.9094858420413283</v>
       </c>
       <c r="L184" s="24">
         <v>12</v>
@@ -13659,14 +13863,14 @@
         <v>144</v>
       </c>
       <c r="T184" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U184" s="69">
-        <v>14570.858283433134</v>
+        <v>57199.999999999993</v>
       </c>
       <c r="V184" s="70">
         <f t="shared" si="6"/>
-        <v>7245.5089820359262</v>
+        <v>417800</v>
       </c>
     </row>
     <row r="185" spans="2:22" x14ac:dyDescent="0.2">
@@ -13680,11 +13884,11 @@
       </c>
       <c r="D185" s="54">
         <f t="shared" si="1"/>
-        <v>5.602991346942932E-196</v>
+        <v>6.6078182904748049E-6</v>
       </c>
       <c r="E185" s="49" cm="1">
         <f t="array" ref="E185">IF($B185=0,0,IF($B185=1,0,_xlfn.BETA.DIST($B185,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>4.8113829855502399E-195</v>
+        <v>2.0864588655195489E-6</v>
       </c>
       <c r="G185" s="24">
         <f t="shared" si="8"/>
@@ -13696,11 +13900,11 @@
       </c>
       <c r="I185" s="54" cm="1">
         <f t="array" ref="I185">J185*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>2.4346586028732453E-267</v>
+        <v>1.312780623274838</v>
       </c>
       <c r="J185" s="49" cm="1">
         <f t="array" ref="J185">IF($B185=0,0,IF($B185=1,0,_xlfn.BETA.DIST($B185,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>7.9411779076443489E-266</v>
+        <v>2.1815599259845611</v>
       </c>
       <c r="L185" s="24">
         <v>13</v>
@@ -13727,14 +13931,14 @@
         <v>156</v>
       </c>
       <c r="T185" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U185" s="69">
-        <v>15768.463073852296</v>
+        <v>57800</v>
       </c>
       <c r="V185" s="70">
         <f t="shared" si="6"/>
-        <v>6047.9041916167644</v>
+        <v>417200</v>
       </c>
     </row>
     <row r="186" spans="2:22" x14ac:dyDescent="0.2">
@@ -13748,11 +13952,11 @@
       </c>
       <c r="D186" s="54">
         <f t="shared" si="1"/>
-        <v>1.0044409277665833E-230</v>
+        <v>2.1317229102789802E-5</v>
       </c>
       <c r="E186" s="49" cm="1">
         <f t="array" ref="E186">IF($B186=0,0,IF($B186=1,0,_xlfn.BETA.DIST($B186,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>8.6253033256659416E-230</v>
+        <v>6.7310449069009107E-6</v>
       </c>
       <c r="G186" s="24">
         <f t="shared" si="8"/>
@@ -13764,11 +13968,11 @@
       </c>
       <c r="I186" s="54" cm="1">
         <f t="array" ref="I186">J186*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>1.9359797252966052E-306</v>
+        <v>0.97035462732892375</v>
       </c>
       <c r="J186" s="49" cm="1">
         <f t="array" ref="J186">IF($B186=0,0,IF($B186=1,0,_xlfn.BETA.DIST($B186,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>6.3146263735002955E-305</v>
+        <v>1.6125213393946332</v>
       </c>
       <c r="L186" s="24">
         <v>14</v>
@@ -13795,14 +13999,14 @@
         <v>168</v>
       </c>
       <c r="T186" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U186" s="69">
-        <v>16966.067864271459</v>
+        <v>58399.999999999993</v>
       </c>
       <c r="V186" s="70">
         <f t="shared" si="6"/>
-        <v>4850.2994011976007</v>
+        <v>416600</v>
       </c>
     </row>
     <row r="187" spans="2:22" x14ac:dyDescent="0.2">
@@ -13816,11 +14020,11 @@
       </c>
       <c r="D187" s="54">
         <f t="shared" si="1"/>
-        <v>5.7957105965704427E-267</v>
+        <v>6.2303502512440516E-5</v>
       </c>
       <c r="E187" s="49" cm="1">
         <f t="array" ref="E187">IF($B187=0,0,IF($B187=1,0,_xlfn.BETA.DIST($B187,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>4.9768742492752377E-266</v>
+        <v>1.9672710334269846E-5</v>
       </c>
       <c r="G187" s="24">
         <f t="shared" si="8"/>
@@ -13832,11 +14036,11 @@
       </c>
       <c r="I187" s="54" cm="1">
         <f t="array" ref="I187">J187*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>0.70790814520589429</v>
       </c>
       <c r="J187" s="49" cm="1">
         <f t="array" ref="J187">IF($B187=0,0,IF($B187=1,0,_xlfn.BETA.DIST($B187,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.1763915565776304</v>
       </c>
       <c r="L187" s="24">
         <v>15</v>
@@ -13863,14 +14067,14 @@
         <v>180</v>
       </c>
       <c r="T187" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U187" s="69">
-        <v>18163.672654690621</v>
+        <v>59000</v>
       </c>
       <c r="V187" s="70">
         <f t="shared" si="6"/>
-        <v>3652.6946107784388</v>
+        <v>416000</v>
       </c>
     </row>
     <row r="188" spans="2:22" x14ac:dyDescent="0.2">
@@ -13884,11 +14088,11 @@
       </c>
       <c r="D188" s="54">
         <f t="shared" si="1"/>
-        <v>1.3758544505370533E-304</v>
+        <v>1.6702111722645313E-4</v>
       </c>
       <c r="E188" s="49" cm="1">
         <f t="array" ref="E188">IF($B188=0,0,IF($B188=1,0,_xlfn.BETA.DIST($B188,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>1.1814693766249316E-303</v>
+        <v>5.2737934889712703E-5</v>
       </c>
       <c r="G188" s="24">
         <f t="shared" si="8"/>
@@ -13900,11 +14104,11 @@
       </c>
       <c r="I188" s="54" cm="1">
         <f t="array" ref="I188">J188*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>0.51019944726426647</v>
       </c>
       <c r="J188" s="49" cm="1">
         <f t="array" ref="J188">IF($B188=0,0,IF($B188=1,0,_xlfn.BETA.DIST($B188,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.84784209080924089</v>
       </c>
       <c r="L188" s="24">
         <v>16</v>
@@ -13931,14 +14135,14 @@
         <v>192</v>
       </c>
       <c r="T188" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U188" s="69">
-        <v>19361.277445109783</v>
+        <v>59600</v>
       </c>
       <c r="V188" s="70">
         <f t="shared" si="6"/>
-        <v>2455.0898203592769</v>
+        <v>415400</v>
       </c>
     </row>
     <row r="189" spans="2:22" x14ac:dyDescent="0.2">
@@ -13952,11 +14156,11 @@
       </c>
       <c r="D189" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1485135565821836E-4</v>
       </c>
       <c r="E189" s="49" cm="1">
         <f t="array" ref="E189">IF($B189=0,0,IF($B189=1,0,_xlfn.BETA.DIST($B189,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.3099184191151504E-4</v>
       </c>
       <c r="G189" s="24">
         <f t="shared" si="8"/>
@@ -13968,11 +14172,11 @@
       </c>
       <c r="I189" s="54" cm="1">
         <f t="array" ref="I189">J189*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>0.36353215887478391</v>
       </c>
       <c r="J189" s="49" cm="1">
         <f t="array" ref="J189">IF($B189=0,0,IF($B189=1,0,_xlfn.BETA.DIST($B189,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.60411250405990202</v>
       </c>
       <c r="L189" s="24">
         <v>17</v>
@@ -13999,14 +14203,14 @@
         <v>204</v>
       </c>
       <c r="T189" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U189" s="69">
-        <v>20558.882235528941</v>
+        <v>60200</v>
       </c>
       <c r="V189" s="70">
         <f t="shared" si="6"/>
-        <v>1257.4850299401187</v>
+        <v>414800</v>
       </c>
     </row>
     <row r="190" spans="2:22" x14ac:dyDescent="0.2">
@@ -14020,11 +14224,11 @@
       </c>
       <c r="D190" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.6272551007666385E-4</v>
       </c>
       <c r="E190" s="49" cm="1">
         <f t="array" ref="E190">IF($B190=0,0,IF($B190=1,0,_xlfn.BETA.DIST($B190,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.0398644261401913E-4</v>
       </c>
       <c r="G190" s="24">
         <f t="shared" si="8"/>
@@ -14036,11 +14240,11 @@
       </c>
       <c r="I190" s="54" cm="1">
         <f t="array" ref="I190">J190*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>0.25623723175376895</v>
       </c>
       <c r="J190" s="49" cm="1">
         <f t="array" ref="J190">IF($B190=0,0,IF($B190=1,0,_xlfn.BETA.DIST($B190,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.42581134001260457</v>
       </c>
       <c r="L190" s="24">
         <v>18</v>
@@ -14067,14 +14271,14 @@
         <v>216</v>
       </c>
       <c r="T190" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U190" s="69">
-        <v>21756.487025948103</v>
+        <v>60800</v>
       </c>
       <c r="V190" s="70">
         <f t="shared" si="6"/>
-        <v>59.88023952095682</v>
+        <v>414200</v>
       </c>
     </row>
     <row r="191" spans="2:22" x14ac:dyDescent="0.2">
@@ -14088,11 +14292,11 @@
       </c>
       <c r="D191" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.1020037112605742E-3</v>
       </c>
       <c r="E191" s="49" cm="1">
         <f t="array" ref="E191">IF($B191=0,0,IF($B191=1,0,_xlfn.BETA.DIST($B191,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>6.6372047261600495E-4</v>
       </c>
       <c r="G191" s="24">
         <f t="shared" si="8"/>
@@ -14104,11 +14308,11 @@
       </c>
       <c r="I191" s="54" cm="1">
         <f t="array" ref="I191">J191*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>0.17874851710064008</v>
       </c>
       <c r="J191" s="49" cm="1">
         <f t="array" ref="J191">IF($B191=0,0,IF($B191=1,0,_xlfn.BETA.DIST($B191,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.29704171041400579</v>
       </c>
       <c r="L191" s="24">
         <v>19</v>
@@ -14135,14 +14339,14 @@
         <v>228</v>
       </c>
       <c r="T191" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U191" s="69">
-        <v>22954.091816367265</v>
+        <v>61399.999999999993</v>
       </c>
       <c r="V191" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>413600</v>
       </c>
     </row>
     <row r="192" spans="2:22" x14ac:dyDescent="0.2">
@@ -14156,11 +14360,11 @@
       </c>
       <c r="D192" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3435526167586247E-3</v>
       </c>
       <c r="E192" s="49" cm="1">
         <f t="array" ref="E192">IF($B192=0,0,IF($B192=1,0,_xlfn.BETA.DIST($B192,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.3715031901150344E-3</v>
       </c>
       <c r="G192" s="24">
         <f t="shared" si="8"/>
@@ -14172,11 +14376,11 @@
       </c>
       <c r="I192" s="54" cm="1">
         <f t="array" ref="I192">J192*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>0.12345410019820444</v>
       </c>
       <c r="J192" s="49" cm="1">
         <f t="array" ref="J192">IF($B192=0,0,IF($B192=1,0,_xlfn.BETA.DIST($B192,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.20515424505507901</v>
       </c>
       <c r="L192" s="24">
         <v>20</v>
@@ -14203,14 +14407,14 @@
         <v>240</v>
       </c>
       <c r="T192" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U192" s="69">
-        <v>24151.696606786427</v>
+        <v>62000</v>
       </c>
       <c r="V192" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>413000</v>
       </c>
     </row>
     <row r="193" spans="2:22" x14ac:dyDescent="0.2">
@@ -14224,11 +14428,11 @@
       </c>
       <c r="D193" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5372168300701101E-3</v>
       </c>
       <c r="E193" s="49" cm="1">
         <f t="array" ref="E193">IF($B193=0,0,IF($B193=1,0,_xlfn.BETA.DIST($B193,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.6956782040510013E-3</v>
       </c>
       <c r="G193" s="24">
         <f t="shared" si="8"/>
@@ -14240,11 +14444,11 @@
       </c>
       <c r="I193" s="54" cm="1">
         <f t="array" ref="I193">J193*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>8.4442093802993126E-2</v>
       </c>
       <c r="J193" s="49" cm="1">
         <f t="array" ref="J193">IF($B193=0,0,IF($B193=1,0,_xlfn.BETA.DIST($B193,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.14032465488963308</v>
       </c>
       <c r="L193" s="24">
         <v>21</v>
@@ -14271,14 +14475,14 @@
         <v>252</v>
       </c>
       <c r="T193" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U193" s="69">
-        <v>25349.301397205589</v>
+        <v>62600</v>
       </c>
       <c r="V193" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>412400</v>
       </c>
     </row>
     <row r="194" spans="2:22" x14ac:dyDescent="0.2">
@@ -14292,11 +14496,11 @@
       </c>
       <c r="D194" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.6029360238695819E-2</v>
       </c>
       <c r="E194" s="49" cm="1">
         <f t="array" ref="E194">IF($B194=0,0,IF($B194=1,0,_xlfn.BETA.DIST($B194,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>5.0613681109911816E-3</v>
       </c>
       <c r="G194" s="24">
         <f t="shared" si="8"/>
@@ -14308,11 +14512,11 @@
       </c>
       <c r="I194" s="54" cm="1">
         <f t="array" ref="I194">J194*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>5.7213936037516719E-2</v>
       </c>
       <c r="J194" s="49" cm="1">
         <f t="array" ref="J194">IF($B194=0,0,IF($B194=1,0,_xlfn.BETA.DIST($B194,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>9.5077294602298162E-2</v>
       </c>
       <c r="L194" s="24">
         <v>22</v>
@@ -14339,14 +14543,14 @@
         <v>264</v>
       </c>
       <c r="T194" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U194" s="69">
-        <v>26546.906187624751</v>
+        <v>63200.000000000007</v>
       </c>
       <c r="V194" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>411800</v>
       </c>
     </row>
     <row r="195" spans="2:22" x14ac:dyDescent="0.2">
@@ -14360,11 +14564,11 @@
       </c>
       <c r="D195" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.8857496956992433E-2</v>
       </c>
       <c r="E195" s="49" cm="1">
         <f t="array" ref="E195">IF($B195=0,0,IF($B195=1,0,_xlfn.BETA.DIST($B195,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>9.1119304006003279E-3</v>
       </c>
       <c r="G195" s="24">
         <f t="shared" si="8"/>
@@ -14376,11 +14580,11 @@
       </c>
       <c r="I195" s="54" cm="1">
         <f t="array" ref="I195">J195*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>3.8406871535315391E-2</v>
       </c>
       <c r="J195" s="49" cm="1">
         <f t="array" ref="J195">IF($B195=0,0,IF($B195=1,0,_xlfn.BETA.DIST($B195,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>6.3823985773699174E-2</v>
       </c>
       <c r="L195" s="24">
         <v>23</v>
@@ -14407,14 +14611,14 @@
         <v>276</v>
       </c>
       <c r="T195" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U195" s="69">
-        <v>27744.510978043912</v>
+        <v>63799.999999999993</v>
       </c>
       <c r="V195" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>411200</v>
       </c>
     </row>
     <row r="196" spans="2:22" x14ac:dyDescent="0.2">
@@ -14428,11 +14632,11 @@
       </c>
       <c r="D196" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.9974186596088481E-2</v>
       </c>
       <c r="E196" s="49" cm="1">
         <f t="array" ref="E196">IF($B196=0,0,IF($B196=1,0,_xlfn.BETA.DIST($B196,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.5779653750594397E-2</v>
       </c>
       <c r="G196" s="24">
         <f t="shared" si="8"/>
@@ -14444,11 +14648,11 @@
       </c>
       <c r="I196" s="54" cm="1">
         <f t="array" ref="I196">J196*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>2.5546696271204001E-2</v>
       </c>
       <c r="J196" s="49" cm="1">
         <f t="array" ref="J196">IF($B196=0,0,IF($B196=1,0,_xlfn.BETA.DIST($B196,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>4.245313180166442E-2</v>
       </c>
       <c r="L196" s="24">
         <v>24</v>
@@ -14475,14 +14679,14 @@
         <v>288</v>
       </c>
       <c r="T196" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U196" s="69">
-        <v>28942.115768463074</v>
+        <v>64400</v>
       </c>
       <c r="V196" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>410600</v>
       </c>
     </row>
     <row r="197" spans="2:22" x14ac:dyDescent="0.2">
@@ -14496,11 +14700,11 @@
       </c>
       <c r="D197" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3483728734924323E-2</v>
       </c>
       <c r="E197" s="49" cm="1">
         <f t="array" ref="E197">IF($B197=0,0,IF($B197=1,0,_xlfn.BETA.DIST($B197,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.6360495747393787E-2</v>
       </c>
       <c r="G197" s="24">
         <f t="shared" si="8"/>
@@ -14512,11 +14716,11 @@
       </c>
       <c r="I197" s="54" cm="1">
         <f t="array" ref="I197">J197*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.6838988494568635E-2</v>
       </c>
       <c r="J197" s="49" cm="1">
         <f t="array" ref="J197">IF($B197=0,0,IF($B197=1,0,_xlfn.BETA.DIST($B197,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.7982788474000271E-2</v>
       </c>
       <c r="L197" s="24">
         <v>25</v>
@@ -14543,14 +14747,14 @@
         <v>300</v>
       </c>
       <c r="T197" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U197" s="69">
-        <v>30139.720558882233</v>
+        <v>65000</v>
       </c>
       <c r="V197" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>410000</v>
       </c>
     </row>
     <row r="198" spans="2:22" x14ac:dyDescent="0.2">
@@ -14564,11 +14768,11 @@
       </c>
       <c r="D198" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.13486565898137426</v>
       </c>
       <c r="E198" s="49" cm="1">
         <f t="array" ref="E198">IF($B198=0,0,IF($B198=1,0,_xlfn.BETA.DIST($B198,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>4.2584653128469291E-2</v>
       </c>
       <c r="G198" s="24">
         <f t="shared" si="8"/>
@@ -14580,11 +14784,11 @@
       </c>
       <c r="I198" s="54" cm="1">
         <f t="array" ref="I198">J198*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.099952557499443E-2</v>
       </c>
       <c r="J198" s="49" cm="1">
         <f t="array" ref="J198">IF($B198=0,0,IF($B198=1,0,_xlfn.BETA.DIST($B198,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.8278853125810048E-2</v>
       </c>
       <c r="L198" s="24">
         <v>26</v>
@@ -14611,14 +14815,14 @@
         <v>312</v>
       </c>
       <c r="T198" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U198" s="69">
-        <v>31337.325349301398</v>
+        <v>65600</v>
       </c>
       <c r="V198" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>409400</v>
       </c>
     </row>
     <row r="199" spans="2:22" x14ac:dyDescent="0.2">
@@ -14632,11 +14836,11 @@
       </c>
       <c r="D199" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.21115000623932928</v>
       </c>
       <c r="E199" s="49" cm="1">
         <f t="array" ref="E199">IF($B199=0,0,IF($B199=1,0,_xlfn.BETA.DIST($B199,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>6.6671900331705475E-2</v>
       </c>
       <c r="G199" s="24">
         <f t="shared" si="8"/>
@@ -14648,11 +14852,11 @@
       </c>
       <c r="I199" s="54" cm="1">
         <f t="array" ref="I199">J199*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>7.1205924573532033E-3</v>
       </c>
       <c r="J199" s="49" cm="1">
         <f t="array" ref="J199">IF($B199=0,0,IF($B199=1,0,_xlfn.BETA.DIST($B199,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.183289795630808E-2</v>
       </c>
       <c r="L199" s="24">
         <v>27</v>
@@ -14679,14 +14883,14 @@
         <v>324</v>
       </c>
       <c r="T199" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U199" s="69">
-        <v>32534.930139720556</v>
+        <v>66200.000000000015</v>
       </c>
       <c r="V199" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>408800</v>
       </c>
     </row>
     <row r="200" spans="2:22" x14ac:dyDescent="0.2">
@@ -14700,11 +14904,11 @@
       </c>
       <c r="D200" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.32100244386923321</v>
       </c>
       <c r="E200" s="49" cm="1">
         <f t="array" ref="E200">IF($B200=0,0,IF($B200=1,0,_xlfn.BETA.DIST($B200,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.1013584764928936</v>
       </c>
       <c r="G200" s="24">
         <f t="shared" si="8"/>
@@ -14716,11 +14920,11 @@
       </c>
       <c r="I200" s="54" cm="1">
         <f t="array" ref="I200">J200*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>4.5681222640062856E-3</v>
       </c>
       <c r="J200" s="49" cm="1">
         <f t="array" ref="J200">IF($B200=0,0,IF($B200=1,0,_xlfn.BETA.DIST($B200,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>7.591239763498259E-3</v>
       </c>
       <c r="L200" s="24">
         <v>28</v>
@@ -14747,14 +14951,14 @@
         <v>336</v>
       </c>
       <c r="T200" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U200" s="69">
-        <v>33732.534930139722</v>
+        <v>66800</v>
       </c>
       <c r="V200" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>408200</v>
       </c>
     </row>
     <row r="201" spans="2:22" x14ac:dyDescent="0.2">
@@ -14768,11 +14972,11 @@
       </c>
       <c r="D201" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.47467468842733329</v>
       </c>
       <c r="E201" s="49" cm="1">
         <f t="array" ref="E201">IF($B201=0,0,IF($B201=1,0,_xlfn.BETA.DIST($B201,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.14988142354558825</v>
       </c>
       <c r="G201" s="24">
         <f t="shared" si="8"/>
@@ -14784,11 +14988,11 @@
       </c>
       <c r="I201" s="54" cm="1">
         <f t="array" ref="I201">J201*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>2.904174373521647E-3</v>
       </c>
       <c r="J201" s="49" cm="1">
         <f t="array" ref="J201">IF($B201=0,0,IF($B201=1,0,_xlfn.BETA.DIST($B201,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>4.8261151322765549E-3</v>
       </c>
       <c r="L201" s="24">
         <v>29</v>
@@ -14815,14 +15019,14 @@
         <v>348</v>
       </c>
       <c r="T201" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U201" s="69">
-        <v>34930.13972055888</v>
+        <v>67399.999999999985</v>
       </c>
       <c r="V201" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>407600</v>
       </c>
     </row>
     <row r="202" spans="2:22" x14ac:dyDescent="0.2">
@@ -14836,11 +15040,11 @@
       </c>
       <c r="D202" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.68377839594679346</v>
       </c>
       <c r="E202" s="49" cm="1">
         <f t="array" ref="E202">IF($B202=0,0,IF($B202=1,0,_xlfn.BETA.DIST($B202,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.21590719259494193</v>
       </c>
       <c r="G202" s="24">
         <f t="shared" si="8"/>
@@ -14852,11 +15056,11 @@
       </c>
       <c r="I202" s="54" cm="1">
         <f t="array" ref="I202">J202*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.8295516011076866E-3</v>
       </c>
       <c r="J202" s="49" cm="1">
         <f t="array" ref="J202">IF($B202=0,0,IF($B202=1,0,_xlfn.BETA.DIST($B202,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.0403224916139122E-3</v>
       </c>
       <c r="L202" s="24">
         <v>30</v>
@@ -14883,14 +15087,14 @@
         <v>360</v>
       </c>
       <c r="T202" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U202" s="69">
-        <v>36127.744510978038</v>
+        <v>67999.999999999985</v>
       </c>
       <c r="V202" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>407000</v>
       </c>
     </row>
     <row r="203" spans="2:22" x14ac:dyDescent="0.2">
@@ -14904,11 +15108,11 @@
       </c>
       <c r="D203" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.96085046429092502</v>
       </c>
       <c r="E203" s="49" cm="1">
         <f t="array" ref="E203">IF($B203=0,0,IF($B203=1,0,_xlfn.BETA.DIST($B203,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.30339438548851533</v>
       </c>
       <c r="G203" s="24">
         <f t="shared" si="8"/>
@@ -14920,11 +15124,11 @@
       </c>
       <c r="I203" s="54" cm="1">
         <f t="array" ref="I203">J203*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.1420039651894032E-3</v>
       </c>
       <c r="J203" s="49" cm="1">
         <f t="array" ref="J203">IF($B203=0,0,IF($B203=1,0,_xlfn.BETA.DIST($B203,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.8977657360281525E-3</v>
       </c>
       <c r="L203" s="24">
         <v>31</v>
@@ -14951,14 +15155,14 @@
         <v>372</v>
       </c>
       <c r="T203" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U203" s="69">
-        <v>37325.349301397204</v>
+        <v>68600</v>
       </c>
       <c r="V203" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>406400</v>
       </c>
     </row>
     <row r="204" spans="2:22" x14ac:dyDescent="0.2">
@@ -14972,11 +15176,11 @@
       </c>
       <c r="D204" s="54">
         <f t="shared" ref="D204:D235" si="10">E204*maxPriorValue_experiment/maxPosteriorValue_experiment</f>
-        <v>0</v>
+        <v>1.3186943166805503</v>
       </c>
       <c r="E204" s="49" cm="1">
         <f t="array" ref="E204">IF($B204=0,0,IF($B204=1,0,_xlfn.BETA.DIST($B204,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.41638576107858977</v>
       </c>
       <c r="G204" s="24">
         <f t="shared" si="8"/>
@@ -14988,11 +15192,11 @@
       </c>
       <c r="I204" s="54" cm="1">
         <f t="array" ref="I204">J204*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>7.0623036529934987E-4</v>
       </c>
       <c r="J204" s="49" cm="1">
         <f t="array" ref="J204">IF($B204=0,0,IF($B204=1,0,_xlfn.BETA.DIST($B204,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.1736034461014044E-3</v>
       </c>
       <c r="L204" s="24">
         <v>32</v>
@@ -15019,14 +15223,14 @@
         <v>384</v>
       </c>
       <c r="T204" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U204" s="69">
-        <v>38522.954091816362</v>
+        <v>69200</v>
       </c>
       <c r="V204" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>405800</v>
       </c>
     </row>
     <row r="205" spans="2:22" x14ac:dyDescent="0.2">
@@ -15040,11 +15244,11 @@
       </c>
       <c r="D205" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.7695046150205485</v>
       </c>
       <c r="E205" s="49" cm="1">
         <f t="array" ref="E205">IF($B205=0,0,IF($B205=1,0,_xlfn.BETA.DIST($B205,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.55873185812470194</v>
       </c>
       <c r="G205" s="24">
         <f t="shared" si="8"/>
@@ -15056,11 +15260,11 @@
       </c>
       <c r="I205" s="54" cm="1">
         <f t="array" ref="I205">J205*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>4.326404493406898E-4</v>
       </c>
       <c r="J205" s="49" cm="1">
         <f t="array" ref="J205">IF($B205=0,0,IF($B205=1,0,_xlfn.BETA.DIST($B205,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>7.1895566548441211E-4</v>
       </c>
       <c r="L205" s="24">
         <v>33</v>
@@ -15087,14 +15291,14 @@
         <v>396</v>
       </c>
       <c r="T205" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U205" s="69">
-        <v>39720.558882235528</v>
+        <v>69800</v>
       </c>
       <c r="V205" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>405200</v>
       </c>
     </row>
     <row r="206" spans="2:22" x14ac:dyDescent="0.2">
@@ -15108,11 +15312,11 @@
       </c>
       <c r="D206" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.3238100247581235</v>
       </c>
       <c r="E206" s="49" cm="1">
         <f t="array" ref="E206">IF($B206=0,0,IF($B206=1,0,_xlfn.BETA.DIST($B206,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.73375716685928993</v>
       </c>
       <c r="G206" s="24">
         <f t="shared" si="8"/>
@@ -15124,11 +15328,11 @@
       </c>
       <c r="I206" s="54" cm="1">
         <f t="array" ref="I206">J206*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>2.6251100815632977E-4</v>
       </c>
       <c r="J206" s="49" cm="1">
         <f t="array" ref="J206">IF($B206=0,0,IF($B206=1,0,_xlfn.BETA.DIST($B206,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>4.362370112494879E-4</v>
       </c>
       <c r="L206" s="24">
         <v>34</v>
@@ -15155,14 +15359,14 @@
         <v>408</v>
       </c>
       <c r="T206" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U206" s="69">
-        <v>40918.163672654686</v>
+        <v>70399.999999999985</v>
       </c>
       <c r="V206" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>404600</v>
       </c>
     </row>
     <row r="207" spans="2:22" x14ac:dyDescent="0.2">
@@ -15176,11 +15380,11 @@
       </c>
       <c r="D207" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.9892972281204786</v>
       </c>
       <c r="E207" s="49" cm="1">
         <f t="array" ref="E207">IF($B207=0,0,IF($B207=1,0,_xlfn.BETA.DIST($B207,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.94388880400596231</v>
       </c>
       <c r="G207" s="24">
         <f t="shared" si="8"/>
@@ -15192,11 +15396,11 @@
       </c>
       <c r="I207" s="54" cm="1">
         <f t="array" ref="I207">J207*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.5773826210166146E-4</v>
       </c>
       <c r="J207" s="49" cm="1">
         <f t="array" ref="J207">IF($B207=0,0,IF($B207=1,0,_xlfn.BETA.DIST($B207,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.6212717136013926E-4</v>
       </c>
       <c r="L207" s="24">
         <v>35</v>
@@ -15223,14 +15427,14 @@
         <v>420</v>
       </c>
       <c r="T207" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U207" s="69">
-        <v>42115.768463073851</v>
+        <v>71000</v>
       </c>
       <c r="V207" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>404000</v>
       </c>
     </row>
     <row r="208" spans="2:22" x14ac:dyDescent="0.2">
@@ -15244,11 +15448,11 @@
       </c>
       <c r="D208" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3.7696057654646817</v>
       </c>
       <c r="E208" s="49" cm="1">
         <f t="array" ref="E208">IF($B208=0,0,IF($B208=1,0,_xlfn.BETA.DIST($B208,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.1902759765965421</v>
       </c>
       <c r="G208" s="24">
         <f t="shared" si="8"/>
@@ -15260,11 +15464,11 @@
       </c>
       <c r="I208" s="54" cm="1">
         <f t="array" ref="I208">J208*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>9.3846278041705906E-5</v>
       </c>
       <c r="J208" s="49" cm="1">
         <f t="array" ref="J208">IF($B208=0,0,IF($B208=1,0,_xlfn.BETA.DIST($B208,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.5595239276755291E-4</v>
       </c>
       <c r="L208" s="24">
         <v>36</v>
@@ -15291,14 +15495,14 @@
         <v>432</v>
       </c>
       <c r="T208" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U208" s="69">
-        <v>43313.373253493017</v>
+        <v>71600</v>
       </c>
       <c r="V208" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>403400</v>
       </c>
     </row>
     <row r="209" spans="2:22" x14ac:dyDescent="0.2">
@@ -15312,11 +15516,11 @@
       </c>
       <c r="D209" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4.6632036265545018</v>
       </c>
       <c r="E209" s="49" cm="1">
         <f t="array" ref="E209">IF($B209=0,0,IF($B209=1,0,_xlfn.BETA.DIST($B209,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.4724349430693007</v>
       </c>
       <c r="G209" s="24">
         <f t="shared" si="8"/>
@@ -15328,11 +15532,11 @@
       </c>
       <c r="I209" s="54" cm="1">
         <f t="array" ref="I209">J209*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>5.5271437197623353E-5</v>
       </c>
       <c r="J209" s="49" cm="1">
         <f t="array" ref="J209">IF($B209=0,0,IF($B209=1,0,_xlfn.BETA.DIST($B209,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>9.184927801654782E-5</v>
       </c>
       <c r="L209" s="24">
         <v>37</v>
@@ -15359,14 +15563,14 @@
         <v>444</v>
       </c>
       <c r="T209" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U209" s="69">
-        <v>44510.978043912182</v>
+        <v>72200</v>
       </c>
       <c r="V209" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>402800</v>
       </c>
     </row>
     <row r="210" spans="2:22" x14ac:dyDescent="0.2">
@@ -15380,11 +15584,11 @@
       </c>
       <c r="D210" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5.6624642466872626</v>
       </c>
       <c r="E210" s="49" cm="1">
         <f t="array" ref="E210">IF($B210=0,0,IF($B210=1,0,_xlfn.BETA.DIST($B210,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.7879575691751024</v>
       </c>
       <c r="G210" s="24">
         <f t="shared" si="8"/>
@@ -15396,11 +15600,11 @@
       </c>
       <c r="I210" s="54" cm="1">
         <f t="array" ref="I210">J210*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>3.2217604895886263E-5</v>
       </c>
       <c r="J210" s="49" cm="1">
         <f t="array" ref="J210">IF($B210=0,0,IF($B210=1,0,_xlfn.BETA.DIST($B210,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>5.3538751643620955E-5</v>
       </c>
       <c r="L210" s="24">
         <v>38</v>
@@ -15427,14 +15631,14 @@
         <v>456</v>
       </c>
       <c r="T210" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U210" s="69">
-        <v>45708.582834331341</v>
+        <v>72800</v>
       </c>
       <c r="V210" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>402200</v>
       </c>
     </row>
     <row r="211" spans="2:22" x14ac:dyDescent="0.2">
@@ -15448,11 +15652,11 @@
       </c>
       <c r="D211" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>6.7530639497866805</v>
       </c>
       <c r="E211" s="49" cm="1">
         <f t="array" ref="E211">IF($B211=0,0,IF($B211=1,0,_xlfn.BETA.DIST($B211,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.1323210669645163</v>
       </c>
       <c r="G211" s="24">
         <f t="shared" si="8"/>
@@ -15464,11 +15668,11 @@
       </c>
       <c r="I211" s="54" cm="1">
         <f t="array" ref="I211">J211*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.8581953309719932E-5</v>
       </c>
       <c r="J211" s="49" cm="1">
         <f t="array" ref="J211">IF($B211=0,0,IF($B211=1,0,_xlfn.BETA.DIST($B211,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.0879222292203505E-5</v>
       </c>
       <c r="L211" s="24">
         <v>39</v>
@@ -15495,14 +15699,14 @@
         <v>468</v>
       </c>
       <c r="T211" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U211" s="69">
-        <v>46906.187624750499</v>
+        <v>73400</v>
       </c>
       <c r="V211" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>401600</v>
       </c>
     </row>
     <row r="212" spans="2:22" x14ac:dyDescent="0.2">
@@ -15516,11 +15720,11 @@
       </c>
       <c r="D212" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>7.91380349829201</v>
       </c>
       <c r="E212" s="49" cm="1">
         <f t="array" ref="E212">IF($B212=0,0,IF($B212=1,0,_xlfn.BETA.DIST($B212,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.4988316480785864</v>
       </c>
       <c r="G212" s="24">
         <f t="shared" si="8"/>
@@ -15532,11 +15736,11 @@
       </c>
       <c r="I212" s="54" cm="1">
         <f t="array" ref="I212">J212*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.0601895006151355E-5</v>
       </c>
       <c r="J212" s="49" cm="1">
         <f t="array" ref="J212">IF($B212=0,0,IF($B212=1,0,_xlfn.BETA.DIST($B212,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.761807637533474E-5</v>
       </c>
       <c r="L212" s="24">
         <v>40</v>
@@ -15563,14 +15767,14 @@
         <v>480</v>
       </c>
       <c r="T212" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U212" s="69">
-        <v>48103.792415169664</v>
+        <v>74000</v>
       </c>
       <c r="V212" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>401000</v>
       </c>
     </row>
     <row r="213" spans="2:22" x14ac:dyDescent="0.2">
@@ -15584,11 +15788,11 @@
       </c>
       <c r="D213" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>9.1169284814691842</v>
       </c>
       <c r="E213" s="49" cm="1">
         <f t="array" ref="E213">IF($B213=0,0,IF($B213=1,0,_xlfn.BETA.DIST($B213,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.8787256883091779</v>
       </c>
       <c r="G213" s="24">
         <f t="shared" si="8"/>
@@ -15600,11 +15804,11 @@
       </c>
       <c r="I213" s="54" cm="1">
         <f t="array" ref="I213">J213*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>5.9820411115894335E-6</v>
       </c>
       <c r="J213" s="49" cm="1">
         <f t="array" ref="J213">IF($B213=0,0,IF($B213=1,0,_xlfn.BETA.DIST($B213,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>9.9408697334981284E-6</v>
       </c>
       <c r="L213" s="24">
         <v>41</v>
@@ -15631,14 +15835,14 @@
         <v>492</v>
       </c>
       <c r="T213" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U213" s="69">
-        <v>49301.397205588823</v>
+        <v>74600</v>
       </c>
       <c r="V213" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>400400</v>
       </c>
     </row>
     <row r="214" spans="2:22" x14ac:dyDescent="0.2">
@@ -15652,11 +15856,11 @@
       </c>
       <c r="D214" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>10.328982794076364</v>
       </c>
       <c r="E214" s="49" cm="1">
         <f t="array" ref="E214">IF($B214=0,0,IF($B214=1,0,_xlfn.BETA.DIST($B214,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.2614392186851373</v>
       </c>
       <c r="G214" s="24">
         <f t="shared" si="8"/>
@@ -15668,11 +15872,11 @@
       </c>
       <c r="I214" s="54" cm="1">
         <f t="array" ref="I214">J214*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>3.3370278347408577E-6</v>
       </c>
       <c r="J214" s="49" cm="1">
         <f t="array" ref="J214">IF($B214=0,0,IF($B214=1,0,_xlfn.BETA.DIST($B214,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>5.545424777831743E-6</v>
       </c>
       <c r="L214" s="24">
         <v>42</v>
@@ -15699,14 +15903,14 @@
         <v>504</v>
       </c>
       <c r="T214" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U214" s="69">
-        <v>50499.001996007988</v>
+        <v>75200</v>
       </c>
       <c r="V214" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>399800</v>
       </c>
     </row>
     <row r="215" spans="2:22" x14ac:dyDescent="0.2">
@@ -15720,11 +15924,11 @@
       </c>
       <c r="D215" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>11.512181072450177</v>
       </c>
       <c r="E215" s="49" cm="1">
         <f t="array" ref="E215">IF($B215=0,0,IF($B215=1,0,_xlfn.BETA.DIST($B215,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.6350412805243897</v>
       </c>
       <c r="G215" s="24">
         <f t="shared" si="8"/>
@@ -15736,11 +15940,11 @@
       </c>
       <c r="I215" s="54" cm="1">
         <f t="array" ref="I215">J215*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.8398239765488448E-6</v>
       </c>
       <c r="J215" s="49" cm="1">
         <f t="array" ref="J215">IF($B215=0,0,IF($B215=1,0,_xlfn.BETA.DIST($B215,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.0573929771236659E-6</v>
       </c>
       <c r="L215" s="24">
         <v>43</v>
@@ -15767,14 +15971,14 @@
         <v>516</v>
       </c>
       <c r="T215" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U215" s="69">
-        <v>51696.606786427146</v>
+        <v>75800</v>
       </c>
       <c r="V215" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>399200</v>
       </c>
     </row>
     <row r="216" spans="2:22" x14ac:dyDescent="0.2">
@@ -15788,11 +15992,11 @@
       </c>
       <c r="D216" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>12.626234603983255</v>
       </c>
       <c r="E216" s="49" cm="1">
         <f t="array" ref="E216">IF($B216=0,0,IF($B216=1,0,_xlfn.BETA.DIST($B216,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.9868104674708928</v>
       </c>
       <c r="G216" s="24">
         <f t="shared" si="8"/>
@@ -15804,11 +16008,11 @@
       </c>
       <c r="I216" s="54" cm="1">
         <f t="array" ref="I216">J216*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.0021909214354729E-6</v>
       </c>
       <c r="J216" s="49" cm="1">
         <f t="array" ref="J216">IF($B216=0,0,IF($B216=1,0,_xlfn.BETA.DIST($B216,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.665426434262236E-6</v>
       </c>
       <c r="L216" s="24">
         <v>44</v>
@@ -15835,14 +16039,14 @@
         <v>528</v>
       </c>
       <c r="T216" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U216" s="69">
-        <v>52894.211576846312</v>
+        <v>76400</v>
       </c>
       <c r="V216" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>398600</v>
       </c>
     </row>
     <row r="217" spans="2:22" x14ac:dyDescent="0.2">
@@ -15856,11 +16060,11 @@
       </c>
       <c r="D217" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>13.630516579341604</v>
       </c>
       <c r="E217" s="49" cm="1">
         <f t="array" ref="E217">IF($B217=0,0,IF($B217=1,0,_xlfn.BETA.DIST($B217,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>4.3039186170682306</v>
       </c>
       <c r="G217" s="24">
         <f t="shared" si="8"/>
@@ -15872,11 +16076,11 @@
       </c>
       <c r="I217" s="54" cm="1">
         <f t="array" ref="I217">J217*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>5.3916776398405431E-7</v>
       </c>
       <c r="J217" s="49" cm="1">
         <f t="array" ref="J217">IF($B217=0,0,IF($B217=1,0,_xlfn.BETA.DIST($B217,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>8.959812221756606E-7</v>
       </c>
       <c r="L217" s="24">
         <v>45</v>
@@ -15903,14 +16107,14 @@
         <v>540</v>
       </c>
       <c r="T217" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U217" s="69">
-        <v>54091.81636726547</v>
+        <v>77000</v>
       </c>
       <c r="V217" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>398000</v>
       </c>
     </row>
     <row r="218" spans="2:22" x14ac:dyDescent="0.2">
@@ -15924,11 +16128,11 @@
       </c>
       <c r="D218" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>14.486412324833633</v>
       </c>
       <c r="E218" s="49" cm="1">
         <f t="array" ref="E218">IF($B218=0,0,IF($B218=1,0,_xlfn.BETA.DIST($B218,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>4.5741729109425853</v>
       </c>
       <c r="G218" s="24">
         <f t="shared" si="8"/>
@@ -15940,11 +16144,11 @@
       </c>
       <c r="I218" s="54" cm="1">
         <f t="array" ref="I218">J218*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>2.8636991269895384E-7</v>
       </c>
       <c r="J218" s="49" cm="1">
         <f t="array" ref="J218">IF($B218=0,0,IF($B218=1,0,_xlfn.BETA.DIST($B218,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>4.7588539507331195E-7</v>
       </c>
       <c r="L218" s="24">
         <v>46</v>
@@ -15971,14 +16175,14 @@
         <v>552</v>
       </c>
       <c r="T218" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U218" s="69">
-        <v>55289.421157684628</v>
+        <v>77600</v>
       </c>
       <c r="V218" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>397400</v>
       </c>
     </row>
     <row r="219" spans="2:22" x14ac:dyDescent="0.2">
@@ -15992,11 +16196,11 @@
       </c>
       <c r="D219" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15.159673353306575</v>
       </c>
       <c r="E219" s="49" cm="1">
         <f t="array" ref="E219">IF($B219=0,0,IF($B219=1,0,_xlfn.BETA.DIST($B219,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>4.7867591807089767</v>
       </c>
       <c r="G219" s="24">
         <f t="shared" si="8"/>
@@ -16008,11 +16212,11 @@
       </c>
       <c r="I219" s="54" cm="1">
         <f t="array" ref="I219">J219*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.5009983852465768E-7</v>
       </c>
       <c r="J219" s="49" cm="1">
         <f t="array" ref="J219">IF($B219=0,0,IF($B219=1,0,_xlfn.BETA.DIST($B219,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.4943374910980302E-7</v>
       </c>
       <c r="L219" s="24">
         <v>47</v>
@@ -16039,14 +16243,14 @@
         <v>564</v>
       </c>
       <c r="T219" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U219" s="69">
-        <v>56487.025948103794</v>
+        <v>78200</v>
       </c>
       <c r="V219" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>396800</v>
       </c>
     </row>
     <row r="220" spans="2:22" x14ac:dyDescent="0.2">
@@ -16060,11 +16264,11 @@
       </c>
       <c r="D220" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15.622584362153434</v>
       </c>
       <c r="E220" s="49" cm="1">
         <f t="array" ref="E220">IF($B220=0,0,IF($B220=1,0,_xlfn.BETA.DIST($B220,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>4.9329261507885569</v>
       </c>
       <c r="G220" s="24">
         <f t="shared" si="8"/>
@@ -16076,11 +16280,11 @@
       </c>
       <c r="I220" s="54" cm="1">
         <f t="array" ref="I220">J220*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>7.7604997092439063E-8</v>
       </c>
       <c r="J220" s="49" cm="1">
         <f t="array" ref="J220">IF($B220=0,0,IF($B220=1,0,_xlfn.BETA.DIST($B220,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.2896286608091529E-7</v>
       </c>
       <c r="L220" s="24">
         <v>48</v>
@@ -16107,14 +16311,14 @@
         <v>576</v>
       </c>
       <c r="T220" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U220" s="69">
-        <v>57684.630738522952</v>
+        <v>78800.000000000015</v>
       </c>
       <c r="V220" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>396200</v>
       </c>
     </row>
     <row r="221" spans="2:22" x14ac:dyDescent="0.2">
@@ -16128,11 +16332,11 @@
       </c>
       <c r="D221" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15.855761467551851</v>
       </c>
       <c r="E221" s="49" cm="1">
         <f t="array" ref="E221">IF($B221=0,0,IF($B221=1,0,_xlfn.BETA.DIST($B221,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>5.0065532418204066</v>
       </c>
       <c r="G221" s="24">
         <f t="shared" si="8"/>
@@ -16144,11 +16348,11 @@
       </c>
       <c r="I221" s="54" cm="1">
         <f t="array" ref="I221">J221*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>3.9559440159084049E-8</v>
       </c>
       <c r="J221" s="49" cm="1">
         <f t="array" ref="J221">IF($B221=0,0,IF($B221=1,0,_xlfn.BETA.DIST($B221,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>6.5739307707144919E-8</v>
       </c>
       <c r="L221" s="24">
         <v>49</v>
@@ -16175,14 +16379,14 @@
         <v>588</v>
       </c>
       <c r="T221" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U221" s="69">
-        <v>58882.235528942118</v>
+        <v>79400</v>
       </c>
       <c r="V221" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>395600</v>
       </c>
     </row>
     <row r="222" spans="2:22" x14ac:dyDescent="0.2">
@@ -16196,11 +16400,11 @@
       </c>
       <c r="D222" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15.84942761869647</v>
       </c>
       <c r="E222" s="49" cm="1">
         <f t="array" ref="E222">IF($B222=0,0,IF($B222=1,0,_xlfn.BETA.DIST($B222,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>5.0045532904724377</v>
       </c>
       <c r="G222" s="24">
         <f t="shared" si="8"/>
@@ -16212,11 +16416,11 @@
       </c>
       <c r="I222" s="54" cm="1">
         <f t="array" ref="I222">J222*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.9872026774336675E-8</v>
       </c>
       <c r="J222" s="49" cm="1">
         <f t="array" ref="J222">IF($B222=0,0,IF($B222=1,0,_xlfn.BETA.DIST($B222,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.302304778908147E-8</v>
       </c>
       <c r="L222" s="24">
         <v>50</v>
@@ -16243,14 +16447,14 @@
         <v>600</v>
       </c>
       <c r="T222" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U222" s="69">
-        <v>60079.840319361276</v>
+        <v>80000</v>
       </c>
       <c r="V222" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>395000</v>
       </c>
     </row>
     <row r="223" spans="2:22" x14ac:dyDescent="0.2">
@@ -16264,11 +16468,11 @@
       </c>
       <c r="D223" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15.604054743820441</v>
       </c>
       <c r="E223" s="49" cm="1">
         <f t="array" ref="E223">IF($B223=0,0,IF($B223=1,0,_xlfn.BETA.DIST($B223,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>4.927075310958215</v>
       </c>
       <c r="G223" s="24">
         <f t="shared" si="8"/>
@@ -16280,11 +16484,11 @@
       </c>
       <c r="I223" s="54" cm="1">
         <f t="array" ref="I223">J223*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>9.8317673593685445E-9</v>
       </c>
       <c r="J223" s="49" cm="1">
         <f t="array" ref="J223">IF($B223=0,0,IF($B223=1,0,_xlfn.BETA.DIST($B223,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.6338289347458692E-8</v>
       </c>
       <c r="L223" s="24">
         <v>51</v>
@@ -16311,14 +16515,14 @@
         <v>612</v>
       </c>
       <c r="T223" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U223" s="69">
-        <v>61277.445109780441</v>
+        <v>80600</v>
       </c>
       <c r="V223" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>394400</v>
       </c>
     </row>
     <row r="224" spans="2:22" x14ac:dyDescent="0.2">
@@ -16332,11 +16536,11 @@
       </c>
       <c r="D224" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15.130317309364504</v>
       </c>
       <c r="E224" s="49" cm="1">
         <f t="array" ref="E224">IF($B224=0,0,IF($B224=1,0,_xlfn.BETA.DIST($B224,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>4.7774898310617857</v>
       </c>
       <c r="G224" s="24">
         <f t="shared" si="8"/>
@@ -16348,11 +16552,11 @@
       </c>
       <c r="I224" s="54" cm="1">
         <f t="array" ref="I224">J224*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>4.7881570772362518E-9</v>
       </c>
       <c r="J224" s="49" cm="1">
         <f t="array" ref="J224">IF($B224=0,0,IF($B224=1,0,_xlfn.BETA.DIST($B224,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>7.9568904459912283E-9</v>
       </c>
       <c r="L224" s="24">
         <v>52</v>
@@ -16379,14 +16583,14 @@
         <v>624</v>
       </c>
       <c r="T224" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U224" s="69">
-        <v>62475.0499001996</v>
+        <v>81200.000000000015</v>
       </c>
       <c r="V224" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>393800</v>
       </c>
     </row>
     <row r="225" spans="2:22" x14ac:dyDescent="0.2">
@@ -16400,11 +16604,11 @@
       </c>
       <c r="D225" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>14.448362822081053</v>
       </c>
       <c r="E225" s="49" cm="1">
         <f t="array" ref="E225">IF($B225=0,0,IF($B225=1,0,_xlfn.BETA.DIST($B225,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>4.5621585487345371</v>
       </c>
       <c r="G225" s="24">
         <f t="shared" si="8"/>
@@ -16416,11 +16620,11 @@
       </c>
       <c r="I225" s="54" cm="1">
         <f t="array" ref="I225">J225*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>2.2939577725347544E-9</v>
       </c>
       <c r="J225" s="49" cm="1">
         <f t="array" ref="J225">IF($B225=0,0,IF($B225=1,0,_xlfn.BETA.DIST($B225,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.8120659763995669E-9</v>
       </c>
       <c r="L225" s="24">
         <v>53</v>
@@ -16447,14 +16651,14 @@
         <v>636</v>
       </c>
       <c r="T225" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U225" s="69">
-        <v>63672.654690618765</v>
+        <v>81800.000000000015</v>
       </c>
       <c r="V225" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>393200</v>
       </c>
     </row>
     <row r="226" spans="2:22" x14ac:dyDescent="0.2">
@@ -16468,11 +16672,11 @@
       </c>
       <c r="D226" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>13.586464897050361</v>
       </c>
       <c r="E226" s="49" cm="1">
         <f t="array" ref="E226">IF($B226=0,0,IF($B226=1,0,_xlfn.BETA.DIST($B226,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>4.2900090301187674</v>
       </c>
       <c r="G226" s="24">
         <f t="shared" si="8"/>
@@ -16484,11 +16688,11 @@
       </c>
       <c r="I226" s="54" cm="1">
         <f t="array" ref="I226">J226*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.0804311274098194E-9</v>
       </c>
       <c r="J226" s="49" cm="1">
         <f t="array" ref="J226">IF($B226=0,0,IF($B226=1,0,_xlfn.BETA.DIST($B226,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.7954448813113879E-9</v>
       </c>
       <c r="L226" s="24">
         <v>54</v>
@@ -16515,14 +16719,14 @@
         <v>648</v>
       </c>
       <c r="T226" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U226" s="69">
-        <v>64870.259481037916</v>
+        <v>82400</v>
       </c>
       <c r="V226" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>392600</v>
       </c>
     </row>
     <row r="227" spans="2:22" x14ac:dyDescent="0.2">
@@ -16536,11 +16740,11 @@
       </c>
       <c r="D227" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>12.57917749245731</v>
       </c>
       <c r="E227" s="49" cm="1">
         <f t="array" ref="E227">IF($B227=0,0,IF($B227=1,0,_xlfn.BETA.DIST($B227,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.9719518979381045</v>
       </c>
       <c r="G227" s="24">
         <f t="shared" si="8"/>
@@ -16552,11 +16756,11 @@
       </c>
       <c r="I227" s="54" cm="1">
         <f t="array" ref="I227">J227*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>4.9991688260524124E-10</v>
       </c>
       <c r="J227" s="49" cm="1">
         <f t="array" ref="J227">IF($B227=0,0,IF($B227=1,0,_xlfn.BETA.DIST($B227,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>8.3075467300403592E-10</v>
       </c>
       <c r="L227" s="24">
         <v>55</v>
@@ -16583,14 +16787,14 @@
         <v>660</v>
       </c>
       <c r="T227" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U227" s="69">
-        <v>66067.864271457089</v>
+        <v>83000</v>
       </c>
       <c r="V227" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>392000</v>
       </c>
     </row>
     <row r="228" spans="2:22" x14ac:dyDescent="0.2">
@@ -16604,11 +16808,11 @@
       </c>
       <c r="D228" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>11.465149295429114</v>
       </c>
       <c r="E228" s="49" cm="1">
         <f t="array" ref="E228">IF($B228=0,0,IF($B228=1,0,_xlfn.BETA.DIST($B228,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.6201907105158004</v>
       </c>
       <c r="G228" s="24">
         <f t="shared" si="8"/>
@@ -16620,11 +16824,11 @@
       </c>
       <c r="I228" s="54" cm="1">
         <f t="array" ref="I228">J228*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>2.2707026467619404E-10</v>
       </c>
       <c r="J228" s="49" cm="1">
         <f t="array" ref="J228">IF($B228=0,0,IF($B228=1,0,_xlfn.BETA.DIST($B228,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.7734209434365228E-10</v>
       </c>
       <c r="L228" s="24">
         <v>56</v>
@@ -16651,14 +16855,14 @@
         <v>672</v>
       </c>
       <c r="T228" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U228" s="69">
-        <v>67265.469061876254</v>
+        <v>83600.000000000015</v>
       </c>
       <c r="V228" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>391400</v>
       </c>
     </row>
     <row r="229" spans="2:22" x14ac:dyDescent="0.2">
@@ -16672,11 +16876,11 @@
       </c>
       <c r="D229" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>10.284781081143509</v>
       </c>
       <c r="E229" s="49" cm="1">
         <f t="array" ref="E229">IF($B229=0,0,IF($B229=1,0,_xlfn.BETA.DIST($B229,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.2474822586469285</v>
       </c>
       <c r="G229" s="24">
         <f t="shared" si="8"/>
@@ -16688,11 +16892,11 @@
       </c>
       <c r="I229" s="54" cm="1">
         <f t="array" ref="I229">J229*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.0116576059697344E-10</v>
       </c>
       <c r="J229" s="49" cm="1">
         <f t="array" ref="J229">IF($B229=0,0,IF($B229=1,0,_xlfn.BETA.DIST($B229,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.6811580342308313E-10</v>
       </c>
       <c r="L229" s="24">
         <v>57</v>
@@ -16719,14 +16923,14 @@
         <v>684</v>
       </c>
       <c r="T229" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U229" s="69">
-        <v>68463.07385229542</v>
+        <v>84200.000000000015</v>
       </c>
       <c r="V229" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>390800</v>
       </c>
     </row>
     <row r="230" spans="2:22" x14ac:dyDescent="0.2">
@@ -16740,11 +16944,11 @@
       </c>
       <c r="D230" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>9.0779141796777338</v>
       </c>
       <c r="E230" s="49" cm="1">
         <f t="array" ref="E230">IF($B230=0,0,IF($B230=1,0,_xlfn.BETA.DIST($B230,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.8664066849291712</v>
       </c>
       <c r="G230" s="24">
         <f t="shared" si="8"/>
@@ -16756,11 +16960,11 @@
       </c>
       <c r="I230" s="54" cm="1">
         <f t="array" ref="I230">J230*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>4.4171379123020151E-11</v>
       </c>
       <c r="J230" s="49" cm="1">
         <f t="array" ref="J230">IF($B230=0,0,IF($B230=1,0,_xlfn.BETA.DIST($B230,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>7.3403361431301233E-11</v>
       </c>
       <c r="L230" s="24">
         <v>58</v>
@@ -16787,14 +16991,14 @@
         <v>696</v>
       </c>
       <c r="T230" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U230" s="69">
-        <v>69660.678642714571</v>
+        <v>84800</v>
       </c>
       <c r="V230" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>390200</v>
       </c>
     </row>
     <row r="231" spans="2:22" x14ac:dyDescent="0.2">
@@ -16808,11 +17012,11 @@
       </c>
       <c r="D231" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>7.8817251467939009</v>
       </c>
       <c r="E231" s="49" cm="1">
         <f t="array" ref="E231">IF($B231=0,0,IF($B231=1,0,_xlfn.BETA.DIST($B231,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.4887027132422634</v>
       </c>
       <c r="G231" s="24">
         <f t="shared" si="8"/>
@@ -16824,11 +17028,11 @@
       </c>
       <c r="I231" s="54" cm="1">
         <f t="array" ref="I231">J231*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.8883287357808927E-11</v>
       </c>
       <c r="J231" s="49" cm="1">
         <f t="array" ref="J231">IF($B231=0,0,IF($B231=1,0,_xlfn.BETA.DIST($B231,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.1379974871873495E-11</v>
       </c>
       <c r="L231" s="24">
         <v>59</v>
@@ -16855,14 +17059,14 @@
         <v>708</v>
       </c>
       <c r="T231" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U231" s="69">
-        <v>70858.283433133736</v>
+        <v>85400</v>
       </c>
       <c r="V231" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>389600</v>
       </c>
     </row>
     <row r="232" spans="2:22" x14ac:dyDescent="0.2">
@@ -16876,11 +17080,11 @@
       </c>
       <c r="D232" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>6.7289725832397718</v>
       </c>
       <c r="E232" s="49" cm="1">
         <f t="array" ref="E232">IF($B232=0,0,IF($B232=1,0,_xlfn.BETA.DIST($B232,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.124714071265688</v>
       </c>
       <c r="G232" s="24">
         <f t="shared" si="8"/>
@@ -16892,11 +17096,11 @@
       </c>
       <c r="I232" s="54" cm="1">
         <f t="array" ref="I232">J232*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>7.8960098934889112E-12</v>
       </c>
       <c r="J232" s="49" cm="1">
         <f t="array" ref="J232">IF($B232=0,0,IF($B232=1,0,_xlfn.BETA.DIST($B232,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.3121475479918592E-11</v>
       </c>
       <c r="L232" s="24">
         <v>60</v>
@@ -16923,14 +17127,14 @@
         <v>720</v>
       </c>
       <c r="T232" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U232" s="69">
-        <v>72055.888223552902</v>
+        <v>86000</v>
       </c>
       <c r="V232" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>389000</v>
       </c>
     </row>
     <row r="233" spans="2:22" x14ac:dyDescent="0.2">
@@ -16944,11 +17148,11 @@
       </c>
       <c r="D233" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5.6467007308973258</v>
       </c>
       <c r="E233" s="49" cm="1">
         <f t="array" ref="E233">IF($B233=0,0,IF($B233=1,0,_xlfn.BETA.DIST($B233,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.7829801430677468</v>
       </c>
       <c r="G233" s="24">
         <f t="shared" si="8"/>
@@ -16960,11 +17164,11 @@
       </c>
       <c r="I233" s="54" cm="1">
         <f t="array" ref="I233">J233*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>3.2259782177858753E-12</v>
       </c>
       <c r="J233" s="49" cm="1">
         <f t="array" ref="J233">IF($B233=0,0,IF($B233=1,0,_xlfn.BETA.DIST($B233,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>5.3608841243137281E-12</v>
       </c>
       <c r="L233" s="24">
         <v>61</v>
@@ -16991,14 +17195,14 @@
         <v>732</v>
       </c>
       <c r="T233" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U233" s="69">
-        <v>73253.493013972067</v>
+        <v>86600</v>
       </c>
       <c r="V233" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>388400</v>
       </c>
     </row>
     <row r="234" spans="2:22" x14ac:dyDescent="0.2">
@@ -17012,11 +17216,11 @@
       </c>
       <c r="D234" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4.6554561000731978</v>
       </c>
       <c r="E234" s="49" cm="1">
         <f t="array" ref="E234">IF($B234=0,0,IF($B234=1,0,_xlfn.BETA.DIST($B234,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.4699886144019298</v>
       </c>
       <c r="G234" s="24">
         <f t="shared" si="8"/>
@@ -17028,11 +17232,11 @@
       </c>
       <c r="I234" s="54" cm="1">
         <f t="array" ref="I234">J234*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.2862684549245497E-12</v>
       </c>
       <c r="J234" s="49" cm="1">
         <f t="array" ref="J234">IF($B234=0,0,IF($B234=1,0,_xlfn.BETA.DIST($B234,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.1375023865918303E-12</v>
       </c>
       <c r="L234" s="24">
         <v>62</v>
@@ -17059,14 +17263,14 @@
         <v>744</v>
       </c>
       <c r="T234" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U234" s="69">
-        <v>74451.097804391218</v>
+        <v>87200</v>
       </c>
       <c r="V234" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>387800</v>
       </c>
     </row>
     <row r="235" spans="2:22" x14ac:dyDescent="0.2">
@@ -17080,11 +17284,11 @@
       </c>
       <c r="D235" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3.7690235399717404</v>
       </c>
       <c r="E235" s="49" cm="1">
         <f t="array" ref="E235">IF($B235=0,0,IF($B235=1,0,_xlfn.BETA.DIST($B235,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.1900921353515079</v>
       </c>
       <c r="G235" s="24">
         <f t="shared" si="8"/>
@@ -17096,11 +17300,11 @@
       </c>
       <c r="I235" s="54" cm="1">
         <f t="array" ref="I235">J235*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>4.9988445777141722E-13</v>
       </c>
       <c r="J235" s="49" cm="1">
         <f t="array" ref="J235">IF($B235=0,0,IF($B235=1,0,_xlfn.BETA.DIST($B235,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>8.3070078988234523E-13</v>
       </c>
       <c r="L235" s="24">
         <v>63</v>
@@ -17127,14 +17331,14 @@
         <v>756</v>
       </c>
       <c r="T235" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U235" s="69">
-        <v>75648.702594810384</v>
+        <v>87800</v>
       </c>
       <c r="V235" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>387200</v>
       </c>
     </row>
     <row r="236" spans="2:22" x14ac:dyDescent="0.2">
@@ -17148,11 +17352,11 @@
       </c>
       <c r="D236" s="54">
         <f t="shared" ref="D236:D267" si="15">E236*maxPriorValue_experiment/maxPosteriorValue_experiment</f>
-        <v>0</v>
+        <v>2.9946422236014114</v>
       </c>
       <c r="E236" s="49" cm="1">
         <f t="array" ref="E236">IF($B236=0,0,IF($B236=1,0,_xlfn.BETA.DIST($B236,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.94557651887902872</v>
       </c>
       <c r="G236" s="24">
         <f t="shared" si="8"/>
@@ -17164,11 +17368,11 @@
       </c>
       <c r="I236" s="54" cm="1">
         <f t="array" ref="I236">J236*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.8909540914230623E-13</v>
       </c>
       <c r="J236" s="49" cm="1">
         <f t="array" ref="J236">IF($B236=0,0,IF($B236=1,0,_xlfn.BETA.DIST($B236,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.142360265368922E-13</v>
       </c>
       <c r="L236" s="24">
         <v>64</v>
@@ -17195,14 +17399,14 @@
         <v>768</v>
       </c>
       <c r="T236" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U236" s="69">
-        <v>76846.307385229549</v>
+        <v>88400</v>
       </c>
       <c r="V236" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>386600</v>
       </c>
     </row>
     <row r="237" spans="2:22" x14ac:dyDescent="0.2">
@@ -17216,11 +17420,11 @@
       </c>
       <c r="D237" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2.3336244937806625</v>
       </c>
       <c r="E237" s="49" cm="1">
         <f t="array" ref="E237">IF($B237=0,0,IF($B237=1,0,_xlfn.BETA.DIST($B237,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.73685614522132525</v>
       </c>
       <c r="G237" s="24">
         <f t="shared" si="8"/>
@@ -17232,11 +17436,11 @@
       </c>
       <c r="I237" s="54" cm="1">
         <f t="array" ref="I237">J237*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>6.9521668074216292E-14</v>
       </c>
       <c r="J237" s="49" cm="1">
         <f t="array" ref="J237">IF($B237=0,0,IF($B237=1,0,_xlfn.BETA.DIST($B237,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.1553010637829809E-13</v>
       </c>
       <c r="L237" s="24">
         <v>65</v>
@@ -17263,14 +17467,14 @@
         <v>780</v>
       </c>
       <c r="T237" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U237" s="69">
-        <v>78043.9121756487</v>
+        <v>89000</v>
       </c>
       <c r="V237" s="70">
         <f t="shared" ref="V237:V272" si="20">MAX(0,T237-U237)</f>
-        <v>0</v>
+        <v>386000</v>
       </c>
     </row>
     <row r="238" spans="2:22" x14ac:dyDescent="0.2">
@@ -17284,11 +17488,11 @@
       </c>
       <c r="D238" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.7822745822591468</v>
       </c>
       <c r="E238" s="49" cm="1">
         <f t="array" ref="E238">IF($B238=0,0,IF($B238=1,0,_xlfn.BETA.DIST($B238,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.56276405304685584</v>
       </c>
       <c r="G238" s="24">
         <f t="shared" ref="G238:G269" si="22">G237+0.01</f>
@@ -17300,11 +17504,11 @@
       </c>
       <c r="I238" s="54" cm="1">
         <f t="array" ref="I238">J238*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>2.4801895657576545E-14</v>
       </c>
       <c r="J238" s="49" cm="1">
         <f t="array" ref="J238">IF($B238=0,0,IF($B238=1,0,_xlfn.BETA.DIST($B238,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>4.1215432872588894E-14</v>
       </c>
       <c r="L238" s="24">
         <v>66</v>
@@ -17331,14 +17535,14 @@
         <v>792</v>
       </c>
       <c r="T238" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U238" s="69">
-        <v>79241.516966067866</v>
+        <v>89600</v>
       </c>
       <c r="V238" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>385400</v>
       </c>
     </row>
     <row r="239" spans="2:22" x14ac:dyDescent="0.2">
@@ -17352,11 +17556,11 @@
       </c>
       <c r="D239" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.3329914215415488</v>
       </c>
       <c r="E239" s="49" cm="1">
         <f t="array" ref="E239">IF($B239=0,0,IF($B239=1,0,_xlfn.BETA.DIST($B239,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.42090015900498157</v>
       </c>
       <c r="G239" s="24">
         <f t="shared" si="22"/>
@@ -17368,11 +17572,11 @@
       </c>
       <c r="I239" s="54" cm="1">
         <f t="array" ref="I239">J239*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>8.5705579301345991E-15</v>
       </c>
       <c r="J239" s="49" cm="1">
         <f t="array" ref="J239">IF($B239=0,0,IF($B239=1,0,_xlfn.BETA.DIST($B239,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.4242429688723756E-14</v>
       </c>
       <c r="L239" s="24">
         <v>67</v>
@@ -17399,14 +17603,14 @@
         <v>804</v>
       </c>
       <c r="T239" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U239" s="69">
-        <v>80439.121756487031</v>
+        <v>90200</v>
       </c>
       <c r="V239" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>384800</v>
       </c>
     </row>
     <row r="240" spans="2:22" x14ac:dyDescent="0.2">
@@ -17420,11 +17624,11 @@
       </c>
       <c r="D240" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.97543999981687435</v>
       </c>
       <c r="E240" s="49" cm="1">
         <f t="array" ref="E240">IF($B240=0,0,IF($B240=1,0,_xlfn.BETA.DIST($B240,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.30800112017821002</v>
       </c>
       <c r="G240" s="24">
         <f t="shared" si="22"/>
@@ -17436,11 +17640,11 @@
       </c>
       <c r="I240" s="54" cm="1">
         <f t="array" ref="I240">J240*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>2.8632249514846038E-15</v>
       </c>
       <c r="J240" s="49" cm="1">
         <f t="array" ref="J240">IF($B240=0,0,IF($B240=1,0,_xlfn.BETA.DIST($B240,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>4.7580659727106621E-15</v>
       </c>
       <c r="L240" s="24">
         <v>68</v>
@@ -17467,14 +17671,14 @@
         <v>816</v>
       </c>
       <c r="T240" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U240" s="69">
-        <v>81636.726546906197</v>
+        <v>90799.999999999985</v>
       </c>
       <c r="V240" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>384200</v>
       </c>
     </row>
     <row r="241" spans="2:22" x14ac:dyDescent="0.2">
@@ -17488,11 +17692,11 @@
       </c>
       <c r="D241" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.69768734495086515</v>
       </c>
       <c r="E241" s="49" cm="1">
         <f t="array" ref="E241">IF($B241=0,0,IF($B241=1,0,_xlfn.BETA.DIST($B241,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.2202990279457169</v>
       </c>
       <c r="G241" s="24">
         <f t="shared" si="22"/>
@@ -17504,11 +17708,11 @@
       </c>
       <c r="I241" s="54" cm="1">
         <f t="array" ref="I241">J241*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>9.2279705450289305E-16</v>
       </c>
       <c r="J241" s="49" cm="1">
         <f t="array" ref="J241">IF($B241=0,0,IF($B241=1,0,_xlfn.BETA.DIST($B241,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.5334908500539627E-15</v>
       </c>
       <c r="L241" s="24">
         <v>69</v>
@@ -17535,14 +17739,14 @@
         <v>828</v>
       </c>
       <c r="T241" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U241" s="69">
-        <v>82834.331337325348</v>
+        <v>91400</v>
       </c>
       <c r="V241" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>383600</v>
       </c>
     </row>
     <row r="242" spans="2:22" x14ac:dyDescent="0.2">
@@ -17556,11 +17760,11 @@
       </c>
       <c r="D242" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.48721949913020535</v>
       </c>
       <c r="E242" s="49" cm="1">
         <f t="array" ref="E242">IF($B242=0,0,IF($B242=1,0,_xlfn.BETA.DIST($B242,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.15384252392042788</v>
       </c>
       <c r="G242" s="24">
         <f t="shared" si="22"/>
@@ -17572,11 +17776,11 @@
       </c>
       <c r="I242" s="54" cm="1">
         <f t="array" ref="I242">J242*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>2.8625463977218991E-16</v>
       </c>
       <c r="J242" s="49" cm="1">
         <f t="array" ref="J242">IF($B242=0,0,IF($B242=1,0,_xlfn.BETA.DIST($B242,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>4.7569383618440034E-16</v>
       </c>
       <c r="L242" s="24">
         <v>70</v>
@@ -17603,14 +17807,14 @@
         <v>840</v>
       </c>
       <c r="T242" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U242" s="69">
-        <v>84031.936127744513</v>
+        <v>92000</v>
       </c>
       <c r="V242" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>383000</v>
       </c>
     </row>
     <row r="243" spans="2:22" x14ac:dyDescent="0.2">
@@ -17624,11 +17828,11 @@
       </c>
       <c r="D243" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.33178132229577229</v>
       </c>
       <c r="E243" s="49" cm="1">
         <f t="array" ref="E243">IF($B243=0,0,IF($B243=1,0,_xlfn.BETA.DIST($B243,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>0.10476197299730398</v>
       </c>
       <c r="G243" s="24">
         <f t="shared" si="22"/>
@@ -17640,11 +17844,11 @@
       </c>
       <c r="I243" s="54" cm="1">
         <f t="array" ref="I243">J243*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>8.5247662679674874E-17</v>
       </c>
       <c r="J243" s="49" cm="1">
         <f t="array" ref="J243">IF($B243=0,0,IF($B243=1,0,_xlfn.BETA.DIST($B243,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.4166333764273872E-16</v>
       </c>
       <c r="L243" s="24">
         <v>71</v>
@@ -17671,14 +17875,14 @@
         <v>852</v>
       </c>
       <c r="T243" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U243" s="69">
-        <v>85229.540918163679</v>
+        <v>92599.999999999985</v>
       </c>
       <c r="V243" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>382400</v>
       </c>
     </row>
     <row r="244" spans="2:22" x14ac:dyDescent="0.2">
@@ -17692,11 +17896,11 @@
       </c>
       <c r="D244" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.22000804037958591</v>
       </c>
       <c r="E244" s="49" cm="1">
         <f t="array" ref="E244">IF($B244=0,0,IF($B244=1,0,_xlfn.BETA.DIST($B244,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>6.9468878555161623E-2</v>
       </c>
       <c r="G244" s="24">
         <f t="shared" si="22"/>
@@ -17708,11 +17912,11 @@
       </c>
       <c r="I244" s="54" cm="1">
         <f t="array" ref="I244">J244*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>2.4303360782011445E-17</v>
       </c>
       <c r="J244" s="49" cm="1">
         <f t="array" ref="J244">IF($B244=0,0,IF($B244=1,0,_xlfn.BETA.DIST($B244,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>4.038697479897302E-17</v>
       </c>
       <c r="L244" s="24">
         <v>72</v>
@@ -17739,14 +17943,14 @@
         <v>864</v>
       </c>
       <c r="T244" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U244" s="69">
-        <v>86427.14570858283</v>
+        <v>93199.999999999985</v>
       </c>
       <c r="V244" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>381800</v>
       </c>
     </row>
     <row r="245" spans="2:22" x14ac:dyDescent="0.2">
@@ -17760,11 +17964,11 @@
       </c>
       <c r="D245" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.1418428537226496</v>
       </c>
       <c r="E245" s="49" cm="1">
         <f t="array" ref="E245">IF($B245=0,0,IF($B245=1,0,_xlfn.BETA.DIST($B245,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>4.4787744857758396E-2</v>
       </c>
       <c r="G245" s="24">
         <f t="shared" si="22"/>
@@ -17776,11 +17980,11 @@
       </c>
       <c r="I245" s="54" cm="1">
         <f t="array" ref="I245">J245*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>6.612102699723918E-18</v>
       </c>
       <c r="J245" s="49" cm="1">
         <f t="array" ref="J245">IF($B245=0,0,IF($B245=1,0,_xlfn.BETA.DIST($B245,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.0987897003102044E-17</v>
       </c>
       <c r="L245" s="24">
         <v>73</v>
@@ -17807,14 +18011,14 @@
         <v>876</v>
       </c>
       <c r="T245" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U245" s="69">
-        <v>87624.750499001995</v>
+        <v>93800</v>
       </c>
       <c r="V245" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>381200</v>
       </c>
     </row>
     <row r="246" spans="2:22" x14ac:dyDescent="0.2">
@@ -17828,11 +18032,11 @@
       </c>
       <c r="D246" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>8.8756063065188642E-2</v>
       </c>
       <c r="E246" s="49" cm="1">
         <f t="array" ref="E246">IF($B246=0,0,IF($B246=1,0,_xlfn.BETA.DIST($B246,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.8025267419644569E-2</v>
       </c>
       <c r="G246" s="24">
         <f t="shared" si="22"/>
@@ -17844,11 +18048,11 @@
       </c>
       <c r="I246" s="54" cm="1">
         <f t="array" ref="I246">J246*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.7107345109822808E-18</v>
       </c>
       <c r="J246" s="49" cm="1">
         <f t="array" ref="J246">IF($B246=0,0,IF($B246=1,0,_xlfn.BETA.DIST($B246,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.8428739630904875E-18</v>
       </c>
       <c r="L246" s="24">
         <v>74</v>
@@ -17875,14 +18079,14 @@
         <v>888</v>
       </c>
       <c r="T246" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U246" s="69">
-        <v>88822.355289421161</v>
+        <v>94400</v>
       </c>
       <c r="V246" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>380600</v>
       </c>
     </row>
     <row r="247" spans="2:22" x14ac:dyDescent="0.2">
@@ -17896,11 +18100,11 @@
       </c>
       <c r="D247" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>5.3796415144768656E-2</v>
       </c>
       <c r="E247" s="49" cm="1">
         <f t="array" ref="E247">IF($B247=0,0,IF($B247=1,0,_xlfn.BETA.DIST($B247,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.6986545691453539E-2</v>
       </c>
       <c r="G247" s="24">
         <f t="shared" si="22"/>
@@ -17912,11 +18116,11 @@
       </c>
       <c r="I247" s="54" cm="1">
         <f t="array" ref="I247">J247*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>4.192724593654841E-19</v>
       </c>
       <c r="J247" s="49" cm="1">
         <f t="array" ref="J247">IF($B247=0,0,IF($B247=1,0,_xlfn.BETA.DIST($B247,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>6.9674093234177756E-19</v>
       </c>
       <c r="L247" s="24">
         <v>75</v>
@@ -17943,14 +18147,14 @@
         <v>900</v>
       </c>
       <c r="T247" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U247" s="69">
-        <v>90019.960079840326</v>
+        <v>95000</v>
       </c>
       <c r="V247" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="248" spans="2:22" x14ac:dyDescent="0.2">
@@ -17964,11 +18168,11 @@
       </c>
       <c r="D248" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3.1514091659309136E-2</v>
       </c>
       <c r="E248" s="49" cm="1">
         <f t="array" ref="E248">IF($B248=0,0,IF($B248=1,0,_xlfn.BETA.DIST($B248,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>9.9507663559913889E-3</v>
       </c>
       <c r="G248" s="24">
         <f t="shared" si="22"/>
@@ -17980,11 +18184,11 @@
       </c>
       <c r="I248" s="54" cm="1">
         <f t="array" ref="I248">J248*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>9.6910970958345897E-20</v>
       </c>
       <c r="J248" s="49" cm="1">
         <f t="array" ref="J248">IF($B248=0,0,IF($B248=1,0,_xlfn.BETA.DIST($B248,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.6104525530212648E-19</v>
       </c>
       <c r="L248" s="24">
         <v>76</v>
@@ -18011,14 +18215,14 @@
         <v>912</v>
       </c>
       <c r="T248" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U248" s="69">
-        <v>91217.564870259477</v>
+        <v>95599.999999999985</v>
       </c>
       <c r="V248" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>379400</v>
       </c>
     </row>
     <row r="249" spans="2:22" x14ac:dyDescent="0.2">
@@ -18032,11 +18236,11 @@
       </c>
       <c r="D249" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.7797274661792713E-2</v>
       </c>
       <c r="E249" s="49" cm="1">
         <f t="array" ref="E249">IF($B249=0,0,IF($B249=1,0,_xlfn.BETA.DIST($B249,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>5.619597856332037E-3</v>
       </c>
       <c r="G249" s="24">
         <f t="shared" si="22"/>
@@ -18048,11 +18252,11 @@
       </c>
       <c r="I249" s="54" cm="1">
         <f t="array" ref="I249">J249*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>2.1021339691159764E-20</v>
       </c>
       <c r="J249" s="49" cm="1">
         <f t="array" ref="J249">IF($B249=0,0,IF($B249=1,0,_xlfn.BETA.DIST($B249,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.4932959435631391E-20</v>
       </c>
       <c r="L249" s="24">
         <v>77</v>
@@ -18079,14 +18283,14 @@
         <v>924</v>
       </c>
       <c r="T249" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U249" s="69">
-        <v>92415.169660678643</v>
+        <v>96200</v>
       </c>
       <c r="V249" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>378800</v>
       </c>
     </row>
     <row r="250" spans="2:22" x14ac:dyDescent="0.2">
@@ -18100,11 +18304,11 @@
       </c>
       <c r="D250" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>9.6615636749996393E-3</v>
       </c>
       <c r="E250" s="49" cm="1">
         <f t="array" ref="E250">IF($B250=0,0,IF($B250=1,0,_xlfn.BETA.DIST($B250,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.0506975673866695E-3</v>
       </c>
       <c r="G250" s="24">
         <f t="shared" si="22"/>
@@ -18116,11 +18320,11 @@
       </c>
       <c r="I250" s="54" cm="1">
         <f t="array" ref="I250">J250*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>4.2551898864610385E-21</v>
       </c>
       <c r="J250" s="49" cm="1">
         <f t="array" ref="J250">IF($B250=0,0,IF($B250=1,0,_xlfn.BETA.DIST($B250,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>7.0712132470397966E-21</v>
       </c>
       <c r="L250" s="24">
         <v>78</v>
@@ -18147,14 +18351,14 @@
         <v>936</v>
       </c>
       <c r="T250" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U250" s="69">
-        <v>93612.774451097808</v>
+        <v>96800</v>
       </c>
       <c r="V250" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>378200</v>
       </c>
     </row>
     <row r="251" spans="2:22" x14ac:dyDescent="0.2">
@@ -18168,11 +18372,11 @@
       </c>
       <c r="D251" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>5.0251981734421389E-3</v>
       </c>
       <c r="E251" s="49" cm="1">
         <f t="array" ref="E251">IF($B251=0,0,IF($B251=1,0,_xlfn.BETA.DIST($B251,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.5867369257240281E-3</v>
       </c>
       <c r="G251" s="24">
         <f t="shared" si="22"/>
@@ -18184,11 +18388,11 @@
       </c>
       <c r="I251" s="54" cm="1">
         <f t="array" ref="I251">J251*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>7.986705547800487E-22</v>
       </c>
       <c r="J251" s="49" cm="1">
         <f t="array" ref="J251">IF($B251=0,0,IF($B251=1,0,_xlfn.BETA.DIST($B251,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.3272192211563753E-21</v>
       </c>
       <c r="L251" s="24">
         <v>79</v>
@@ -18215,14 +18419,14 @@
         <v>948</v>
       </c>
       <c r="T251" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U251" s="69">
-        <v>94810.379241516959</v>
+        <v>97400</v>
       </c>
       <c r="V251" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>377600</v>
       </c>
     </row>
     <row r="252" spans="2:22" x14ac:dyDescent="0.2">
@@ -18236,11 +18440,11 @@
       </c>
       <c r="D252" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2.494715872856761E-3</v>
       </c>
       <c r="E252" s="49" cm="1">
         <f t="array" ref="E252">IF($B252=0,0,IF($B252=1,0,_xlfn.BETA.DIST($B252,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>7.8772172917913495E-4</v>
       </c>
       <c r="G252" s="24">
         <f t="shared" si="22"/>
@@ -18252,11 +18456,11 @@
       </c>
       <c r="I252" s="54" cm="1">
         <f t="array" ref="I252">J252*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.3798053363268716E-22</v>
       </c>
       <c r="J252" s="49" cm="1">
         <f t="array" ref="J252">IF($B252=0,0,IF($B252=1,0,_xlfn.BETA.DIST($B252,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.2929406284816601E-22</v>
       </c>
       <c r="L252" s="24">
         <v>80</v>
@@ -18283,14 +18487,14 @@
         <v>960</v>
       </c>
       <c r="T252" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U252" s="69">
-        <v>96007.984031936125</v>
+        <v>98000</v>
       </c>
       <c r="V252" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>377000</v>
       </c>
     </row>
     <row r="253" spans="2:22" x14ac:dyDescent="0.2">
@@ -18304,11 +18508,11 @@
       </c>
       <c r="D253" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.1769036542033388E-3</v>
       </c>
       <c r="E253" s="49" cm="1">
         <f t="array" ref="E253">IF($B253=0,0,IF($B253=1,0,_xlfn.BETA.DIST($B253,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.7161449592441279E-4</v>
       </c>
       <c r="G253" s="24">
         <f t="shared" si="22"/>
@@ -18320,11 +18524,11 @@
       </c>
       <c r="I253" s="54" cm="1">
         <f t="array" ref="I253">J253*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>2.1756503642101269E-23</v>
       </c>
       <c r="J253" s="49" cm="1">
         <f t="array" ref="J253">IF($B253=0,0,IF($B253=1,0,_xlfn.BETA.DIST($B253,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.6154644297494791E-23</v>
       </c>
       <c r="L253" s="24">
         <v>81</v>
@@ -18351,14 +18555,14 @@
         <v>972</v>
       </c>
       <c r="T253" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U253" s="69">
-        <v>97205.58882235529</v>
+        <v>98600</v>
       </c>
       <c r="V253" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>376400</v>
       </c>
     </row>
     <row r="254" spans="2:22" x14ac:dyDescent="0.2">
@@ -18372,11 +18576,11 @@
       </c>
       <c r="D254" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>5.2491132268589686E-4</v>
       </c>
       <c r="E254" s="49" cm="1">
         <f t="array" ref="E254">IF($B254=0,0,IF($B254=1,0,_xlfn.BETA.DIST($B254,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.6574394674386336E-4</v>
       </c>
       <c r="G254" s="24">
         <f t="shared" si="22"/>
@@ -18388,11 +18592,11 @@
       </c>
       <c r="I254" s="54" cm="1">
         <f t="array" ref="I254">J254*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>3.1002973454371139E-24</v>
       </c>
       <c r="J254" s="49" cm="1">
         <f t="array" ref="J254">IF($B254=0,0,IF($B254=1,0,_xlfn.BETA.DIST($B254,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>5.152029461380882E-24</v>
       </c>
       <c r="L254" s="24">
         <v>82</v>
@@ -18419,14 +18623,14 @@
         <v>984</v>
       </c>
       <c r="T254" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U254" s="69">
-        <v>98403.193612774456</v>
+        <v>99200</v>
       </c>
       <c r="V254" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>375800</v>
       </c>
     </row>
     <row r="255" spans="2:22" x14ac:dyDescent="0.2">
@@ -18440,11 +18644,11 @@
       </c>
       <c r="D255" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2.2000920171087566E-4</v>
       </c>
       <c r="E255" s="49" cm="1">
         <f t="array" ref="E255">IF($B255=0,0,IF($B255=1,0,_xlfn.BETA.DIST($B255,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>6.9469245252588646E-5</v>
       </c>
       <c r="G255" s="24">
         <f t="shared" si="22"/>
@@ -18456,11 +18660,11 @@
       </c>
       <c r="I255" s="54" cm="1">
         <f t="array" ref="I255">J255*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>3.9468233132046826E-25</v>
       </c>
       <c r="J255" s="49" cm="1">
         <f t="array" ref="J255">IF($B255=0,0,IF($B255=1,0,_xlfn.BETA.DIST($B255,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>6.5587741183671833E-25</v>
       </c>
       <c r="L255" s="24">
         <v>83</v>
@@ -18487,14 +18691,14 @@
         <v>996</v>
       </c>
       <c r="T255" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U255" s="69">
-        <v>99600.798403193607</v>
+        <v>99800</v>
       </c>
       <c r="V255" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>375200</v>
       </c>
     </row>
     <row r="256" spans="2:22" x14ac:dyDescent="0.2">
@@ -18508,11 +18712,11 @@
       </c>
       <c r="D256" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>8.604143858700711E-5</v>
       </c>
       <c r="E256" s="49" cm="1">
         <f t="array" ref="E256">IF($B256=0,0,IF($B256=1,0,_xlfn.BETA.DIST($B256,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.7168108209134369E-5</v>
       </c>
       <c r="G256" s="24">
         <f t="shared" si="22"/>
@@ -18524,11 +18728,11 @@
       </c>
       <c r="I256" s="54" cm="1">
         <f t="array" ref="I256">J256*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>4.4278839017975835E-26</v>
       </c>
       <c r="J256" s="49" cm="1">
         <f t="array" ref="J256">IF($B256=0,0,IF($B256=1,0,_xlfn.BETA.DIST($B256,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>7.3581936736519418E-26</v>
       </c>
       <c r="L256" s="24">
         <v>84</v>
@@ -18555,14 +18759,14 @@
         <v>1008</v>
       </c>
       <c r="T256" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U256" s="69">
-        <v>100798.40319361277</v>
+        <v>100400</v>
       </c>
       <c r="V256" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>374600</v>
       </c>
     </row>
     <row r="257" spans="2:22" x14ac:dyDescent="0.2">
@@ -18576,11 +18780,11 @@
       </c>
       <c r="D257" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3.1130163050266805E-5</v>
       </c>
       <c r="E257" s="49" cm="1">
         <f t="array" ref="E257">IF($B257=0,0,IF($B257=1,0,_xlfn.BETA.DIST($B257,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>9.82953855963723E-6</v>
       </c>
       <c r="G257" s="24">
         <f t="shared" si="22"/>
@@ -18592,11 +18796,11 @@
       </c>
       <c r="I257" s="54" cm="1">
         <f t="array" ref="I257">J257*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>4.3069924418508606E-27</v>
       </c>
       <c r="J257" s="49" cm="1">
         <f t="array" ref="J257">IF($B257=0,0,IF($B257=1,0,_xlfn.BETA.DIST($B257,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>7.1572979872457557E-27</v>
       </c>
       <c r="L257" s="24">
         <v>85</v>
@@ -18623,14 +18827,14 @@
         <v>1020</v>
       </c>
       <c r="T257" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U257" s="69">
-        <v>101996.00798403194</v>
+        <v>101000</v>
       </c>
       <c r="V257" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>374000</v>
       </c>
     </row>
     <row r="258" spans="2:22" x14ac:dyDescent="0.2">
@@ -18644,11 +18848,11 @@
       </c>
       <c r="D258" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.0312942266190914E-5</v>
       </c>
       <c r="E258" s="49" cm="1">
         <f t="array" ref="E258">IF($B258=0,0,IF($B258=1,0,_xlfn.BETA.DIST($B258,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.2563743243216755E-6</v>
       </c>
       <c r="G258" s="24">
         <f t="shared" si="22"/>
@@ -18660,11 +18864,11 @@
       </c>
       <c r="I258" s="54" cm="1">
         <f t="array" ref="I258">J258*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>3.5615579862219748E-28</v>
       </c>
       <c r="J258" s="49" cm="1">
         <f t="array" ref="J258">IF($B258=0,0,IF($B258=1,0,_xlfn.BETA.DIST($B258,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>5.9185457486642776E-28</v>
       </c>
       <c r="L258" s="24">
         <v>86</v>
@@ -18691,14 +18895,14 @@
         <v>1032</v>
       </c>
       <c r="T258" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U258" s="69">
-        <v>103193.6127744511</v>
+        <v>101600</v>
       </c>
       <c r="V258" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>373400</v>
       </c>
     </row>
     <row r="259" spans="2:22" x14ac:dyDescent="0.2">
@@ -18712,11 +18916,11 @@
       </c>
       <c r="D259" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3.0890698709183633E-6</v>
       </c>
       <c r="E259" s="49" cm="1">
         <f t="array" ref="E259">IF($B259=0,0,IF($B259=1,0,_xlfn.BETA.DIST($B259,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>9.7539262356499007E-7</v>
       </c>
       <c r="G259" s="24">
         <f t="shared" si="22"/>
@@ -18728,11 +18932,11 @@
       </c>
       <c r="I259" s="54" cm="1">
         <f t="array" ref="I259">J259*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>2.444279284110952E-29</v>
       </c>
       <c r="J259" s="49" cm="1">
         <f t="array" ref="J259">IF($B259=0,0,IF($B259=1,0,_xlfn.BETA.DIST($B259,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>4.0618680985926836E-29</v>
       </c>
       <c r="L259" s="24">
         <v>87</v>
@@ -18759,14 +18963,14 @@
         <v>1044</v>
       </c>
       <c r="T259" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U259" s="69">
-        <v>104391.21756487025</v>
+        <v>102200</v>
       </c>
       <c r="V259" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>372800</v>
       </c>
     </row>
     <row r="260" spans="2:22" x14ac:dyDescent="0.2">
@@ -18780,11 +18984,11 @@
       </c>
       <c r="D260" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>8.2358338892079059E-7</v>
       </c>
       <c r="E260" s="49" cm="1">
         <f t="array" ref="E260">IF($B260=0,0,IF($B260=1,0,_xlfn.BETA.DIST($B260,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.6005147051114573E-7</v>
       </c>
       <c r="G260" s="24">
         <f t="shared" si="22"/>
@@ -18796,11 +19000,11 @@
       </c>
       <c r="I260" s="54" cm="1">
         <f t="array" ref="I260">J260*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.3512995447223153E-30</v>
       </c>
       <c r="J260" s="49" cm="1">
         <f t="array" ref="J260">IF($B260=0,0,IF($B260=1,0,_xlfn.BETA.DIST($B260,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.2455701146879413E-30</v>
       </c>
       <c r="L260" s="24">
         <v>88</v>
@@ -18827,14 +19031,14 @@
         <v>1056</v>
       </c>
       <c r="T260" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U260" s="69">
-        <v>105588.82235528942</v>
+        <v>102800</v>
       </c>
       <c r="V260" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>372200</v>
       </c>
     </row>
     <row r="261" spans="2:22" x14ac:dyDescent="0.2">
@@ -18848,11 +19052,11 @@
       </c>
       <c r="D261" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.9161305628324925E-7</v>
       </c>
       <c r="E261" s="49" cm="1">
         <f t="array" ref="E261">IF($B261=0,0,IF($B261=1,0,_xlfn.BETA.DIST($B261,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>6.0502989406924894E-8</v>
       </c>
       <c r="G261" s="24">
         <f t="shared" si="22"/>
@@ -18864,11 +19068,11 @@
       </c>
       <c r="I261" s="54" cm="1">
         <f t="array" ref="I261">J261*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>5.7956179556716385E-32</v>
       </c>
       <c r="J261" s="49" cm="1">
         <f t="array" ref="J261">IF($B261=0,0,IF($B261=1,0,_xlfn.BETA.DIST($B261,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>9.6310744188694706E-32</v>
       </c>
       <c r="L261" s="24">
         <v>89</v>
@@ -18895,14 +19099,14 @@
         <v>1068</v>
       </c>
       <c r="T261" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U261" s="69">
-        <v>106786.42714570859</v>
+        <v>103400</v>
       </c>
       <c r="V261" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>371600</v>
       </c>
     </row>
     <row r="262" spans="2:22" x14ac:dyDescent="0.2">
@@ -18916,11 +19120,11 @@
       </c>
       <c r="D262" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3.7923865317015682E-8</v>
       </c>
       <c r="E262" s="49" cm="1">
         <f t="array" ref="E262">IF($B262=0,0,IF($B262=1,0,_xlfn.BETA.DIST($B262,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.1974691422661846E-8</v>
       </c>
       <c r="G262" s="24">
         <f t="shared" si="22"/>
@@ -18932,11 +19136,11 @@
       </c>
       <c r="I262" s="54" cm="1">
         <f t="array" ref="I262">J262*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.8372574367660709E-33</v>
       </c>
       <c r="J262" s="49" cm="1">
         <f t="array" ref="J262">IF($B262=0,0,IF($B262=1,0,_xlfn.BETA.DIST($B262,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.0531279382898529E-33</v>
       </c>
       <c r="L262" s="24">
         <v>90</v>
@@ -18963,14 +19167,14 @@
         <v>1080</v>
       </c>
       <c r="T262" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U262" s="69">
-        <v>107984.03193612774</v>
+        <v>104000.00000000001</v>
       </c>
       <c r="V262" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>371000</v>
       </c>
     </row>
     <row r="263" spans="2:22" x14ac:dyDescent="0.2">
@@ -18984,11 +19188,11 @@
       </c>
       <c r="D263" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>6.1743006765223902E-9</v>
       </c>
       <c r="E263" s="49" cm="1">
         <f t="array" ref="E263">IF($B263=0,0,IF($B263=1,0,_xlfn.BETA.DIST($B263,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.9495730388778325E-9</v>
       </c>
       <c r="G263" s="24">
         <f t="shared" si="22"/>
@@ -19000,11 +19204,11 @@
       </c>
       <c r="I263" s="54" cm="1">
         <f t="array" ref="I263">J263*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>4.0390159684178867E-35</v>
       </c>
       <c r="J263" s="49" cm="1">
         <f t="array" ref="J263">IF($B263=0,0,IF($B263=1,0,_xlfn.BETA.DIST($B263,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>6.711978544542761E-35</v>
       </c>
       <c r="L263" s="24">
         <v>91</v>
@@ -19031,14 +19235,14 @@
         <v>1092</v>
       </c>
       <c r="T263" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U263" s="69">
-        <v>109181.6367265469</v>
+        <v>104600</v>
       </c>
       <c r="V263" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>370400</v>
       </c>
     </row>
     <row r="264" spans="2:22" x14ac:dyDescent="0.2">
@@ -19052,11 +19256,11 @@
       </c>
       <c r="D264" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>7.9011866711609914E-10</v>
       </c>
       <c r="E264" s="49" cm="1">
         <f t="array" ref="E264">IF($B264=0,0,IF($B264=1,0,_xlfn.BETA.DIST($B264,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.494847808077994E-10</v>
       </c>
       <c r="G264" s="24">
         <f t="shared" si="22"/>
@@ -19068,11 +19272,11 @@
       </c>
       <c r="I264" s="54" cm="1">
         <f t="array" ref="I264">J264*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>5.6483038191010082E-37</v>
       </c>
       <c r="J264" s="49" cm="1">
         <f t="array" ref="J264">IF($B264=0,0,IF($B264=1,0,_xlfn.BETA.DIST($B264,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>9.3862699091321104E-37</v>
       </c>
       <c r="L264" s="24">
         <v>92</v>
@@ -19099,14 +19303,14 @@
         <v>1104</v>
       </c>
       <c r="T264" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U264" s="69">
-        <v>110379.24151696607</v>
+        <v>105200</v>
       </c>
       <c r="V264" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>369800</v>
       </c>
     </row>
     <row r="265" spans="2:22" x14ac:dyDescent="0.2">
@@ -19120,11 +19324,11 @@
       </c>
       <c r="D265" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>7.456160005321119E-11</v>
       </c>
       <c r="E265" s="49" cm="1">
         <f t="array" ref="E265">IF($B265=0,0,IF($B265=1,0,_xlfn.BETA.DIST($B265,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.3543279282149704E-11</v>
       </c>
       <c r="G265" s="24">
         <f t="shared" si="22"/>
@@ -19136,11 +19340,11 @@
       </c>
       <c r="I265" s="54" cm="1">
         <f t="array" ref="I265">J265*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>4.4516742051534185E-39</v>
       </c>
       <c r="J265" s="49" cm="1">
         <f t="array" ref="J265">IF($B265=0,0,IF($B265=1,0,_xlfn.BETA.DIST($B265,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>7.3977280570119256E-39</v>
       </c>
       <c r="L265" s="24">
         <v>93</v>
@@ -19167,14 +19371,14 @@
         <v>1116</v>
       </c>
       <c r="T265" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U265" s="69">
-        <v>111576.84630738523</v>
+        <v>105800</v>
       </c>
       <c r="V265" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>369200</v>
       </c>
     </row>
     <row r="266" spans="2:22" x14ac:dyDescent="0.2">
@@ -19188,11 +19392,11 @@
       </c>
       <c r="D266" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4.7256447789997147E-12</v>
       </c>
       <c r="E266" s="49" cm="1">
         <f t="array" ref="E266">IF($B266=0,0,IF($B266=1,0,_xlfn.BETA.DIST($B266,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.4921511172081041E-12</v>
       </c>
       <c r="G266" s="24">
         <f t="shared" si="22"/>
@@ -19204,11 +19408,11 @@
       </c>
       <c r="I266" s="54" cm="1">
         <f t="array" ref="I266">J266*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.6561210550430735E-41</v>
       </c>
       <c r="J266" s="49" cm="1">
         <f t="array" ref="J266">IF($B266=0,0,IF($B266=1,0,_xlfn.BETA.DIST($B266,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.7521181088493676E-41</v>
       </c>
       <c r="L266" s="24">
         <v>94</v>
@@ -19235,14 +19439,14 @@
         <v>1128</v>
       </c>
       <c r="T266" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U266" s="69">
-        <v>112774.45109780438</v>
+        <v>106400.00000000001</v>
       </c>
       <c r="V266" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>368600</v>
       </c>
     </row>
     <row r="267" spans="2:22" x14ac:dyDescent="0.2">
@@ -19256,11 +19460,11 @@
       </c>
       <c r="D267" s="54">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.7401283428481755E-13</v>
       </c>
       <c r="E267" s="49" cm="1">
         <f t="array" ref="E267">IF($B267=0,0,IF($B267=1,0,_xlfn.BETA.DIST($B267,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>5.4945612129060714E-14</v>
       </c>
       <c r="G267" s="24">
         <f t="shared" si="22"/>
@@ -19272,11 +19476,11 @@
       </c>
       <c r="I267" s="54" cm="1">
         <f t="array" ref="I267">J267*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>2.2092655738484156E-44</v>
       </c>
       <c r="J267" s="49" cm="1">
         <f t="array" ref="J267">IF($B267=0,0,IF($B267=1,0,_xlfn.BETA.DIST($B267,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.671325700818155E-44</v>
       </c>
       <c r="L267" s="24">
         <v>95</v>
@@ -19303,14 +19507,14 @@
         <v>1140</v>
       </c>
       <c r="T267" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U267" s="69">
-        <v>113972.05588822355</v>
+        <v>106999.99999999999</v>
       </c>
       <c r="V267" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>368000</v>
       </c>
     </row>
     <row r="268" spans="2:22" x14ac:dyDescent="0.2">
@@ -19323,34 +19527,34 @@
         <v>9.1124633720799082</v>
       </c>
       <c r="D268" s="54">
-        <f t="shared" ref="D268:D299" si="23">E268*maxPriorValue_experiment/maxPosteriorValue_experiment</f>
-        <v>0</v>
+        <f t="shared" ref="D268:D272" si="23">E268*maxPriorValue_experiment/maxPosteriorValue_experiment</f>
+        <v>2.9201451064178781E-15</v>
       </c>
       <c r="E268" s="49" cm="1">
         <f t="array" ref="E268">IF($B268=0,0,IF($B268=1,0,_xlfn.BETA.DIST($B268,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>9.2205360045566756E-16</v>
       </c>
       <c r="G268" s="24">
         <f t="shared" si="22"/>
         <v>0.96000000000000063</v>
       </c>
       <c r="H268" s="54">
-        <f t="shared" ref="H268:H299" si="24">IF(G268=0,0,IF(G268=1,0,_xlfn.BETA.DIST(G268,alpha_control_prior,beta_control_prior,FALSE)))</f>
+        <f t="shared" ref="H268:H272" si="24">IF(G268=0,0,IF(G268=1,0,_xlfn.BETA.DIST(G268,alpha_control_prior,beta_control_prior,FALSE)))</f>
         <v>5.6404946504893344E-22</v>
       </c>
       <c r="I268" s="54" cm="1">
         <f t="array" ref="I268">J268*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>6.6680624115162812E-48</v>
       </c>
       <c r="J268" s="49" cm="1">
         <f t="array" ref="J268">IF($B268=0,0,IF($B268=1,0,_xlfn.BETA.DIST($B268,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.1080890045923875E-47</v>
       </c>
       <c r="L268" s="24">
         <v>96</v>
       </c>
       <c r="M268" s="29">
-        <f t="shared" ref="M268:M299" si="25">IF(L268=0,1,L268*(maxPosteriorScalePower/100))</f>
+        <f t="shared" ref="M268:M272" si="25">IF(L268=0,1,L268*(maxPosteriorScalePower/100))</f>
         <v>1152</v>
       </c>
       <c r="N268" s="69">
@@ -19367,18 +19571,18 @@
         <v>96</v>
       </c>
       <c r="S268" s="29">
-        <f t="shared" ref="S268:S299" si="26">IF(R268=0,1,R268*(maxHeadsInControl/100))</f>
+        <f t="shared" ref="S268:S272" si="26">IF(R268=0,1,R268*(maxHeadsInControl/100))</f>
         <v>1152</v>
       </c>
       <c r="T268" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U268" s="69">
-        <v>115169.66067864271</v>
+        <v>107600</v>
       </c>
       <c r="V268" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>367400</v>
       </c>
     </row>
     <row r="269" spans="2:22" x14ac:dyDescent="0.2">
@@ -19392,11 +19596,11 @@
       </c>
       <c r="D269" s="54">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.4164136810037825E-17</v>
       </c>
       <c r="E269" s="49" cm="1">
         <f t="array" ref="E269">IF($B269=0,0,IF($B269=1,0,_xlfn.BETA.DIST($B269,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>4.4724124545518754E-18</v>
       </c>
       <c r="G269" s="24">
         <f t="shared" si="22"/>
@@ -19408,11 +19612,11 @@
       </c>
       <c r="I269" s="54" cm="1">
         <f t="array" ref="I269">J269*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>1.9205713476782623E-52</v>
       </c>
       <c r="J269" s="49" cm="1">
         <f t="array" ref="J269">IF($B269=0,0,IF($B269=1,0,_xlfn.BETA.DIST($B269,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>3.1915777951057492E-52</v>
       </c>
       <c r="L269" s="24">
         <v>97</v>
@@ -19439,14 +19643,14 @@
         <v>1164</v>
       </c>
       <c r="T269" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U269" s="69">
-        <v>116367.26546906187</v>
+        <v>108199.99999999999</v>
       </c>
       <c r="V269" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>366800</v>
       </c>
     </row>
     <row r="270" spans="2:22" x14ac:dyDescent="0.2">
@@ -19460,11 +19664,11 @@
       </c>
       <c r="D270" s="54">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>7.1446269569051658E-21</v>
       </c>
       <c r="E270" s="49" cm="1">
         <f t="array" ref="E270">IF($B270=0,0,IF($B270=1,0,_xlfn.BETA.DIST($B270,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>2.2559594710031894E-21</v>
       </c>
       <c r="G270" s="24">
         <f>G269+0.01</f>
@@ -19476,11 +19680,11 @@
       </c>
       <c r="I270" s="54" cm="1">
         <f t="array" ref="I270">J270*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>7.6003844746044393E-59</v>
       </c>
       <c r="J270" s="49" cm="1">
         <f t="array" ref="J270">IF($B270=0,0,IF($B270=1,0,_xlfn.BETA.DIST($B270,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.2630209418014091E-58</v>
       </c>
       <c r="L270" s="24">
         <v>98</v>
@@ -19507,14 +19711,14 @@
         <v>1176</v>
       </c>
       <c r="T270" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U270" s="69">
-        <v>117564.87025948103</v>
+        <v>108800.00000000001</v>
       </c>
       <c r="V270" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>366200</v>
       </c>
     </row>
     <row r="271" spans="2:22" x14ac:dyDescent="0.2">
@@ -19528,11 +19732,11 @@
       </c>
       <c r="D271" s="54">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.4358037276727099E-26</v>
       </c>
       <c r="E271" s="49" cm="1">
         <f t="array" ref="E271">IF($B271=0,0,IF($B271=1,0,_xlfn.BETA.DIST($B271,alpha_experiment_posterior,beta_experiment_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>4.5336377077243782E-27</v>
       </c>
       <c r="G271" s="24">
         <f t="shared" ref="G271" si="28">G270+0.01</f>
@@ -19544,11 +19748,11 @@
       </c>
       <c r="I271" s="54" cm="1">
         <f t="array" ref="I271">J271*maxPriorValue_control/maxPosteriorValue_control</f>
-        <v>0</v>
+        <v>8.5191901173174606E-70</v>
       </c>
       <c r="J271" s="49" cm="1">
         <f t="array" ref="J271">IF($B271=0,0,IF($B271=1,0,_xlfn.BETA.DIST($B271,alpha_control_posterior,beta_control_posterior,FALSE)))</f>
-        <v>0</v>
+        <v>1.4157067397461566E-69</v>
       </c>
       <c r="L271" s="24">
         <v>99</v>
@@ -19575,14 +19779,14 @@
         <v>1188</v>
       </c>
       <c r="T271" s="69">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U271" s="69">
-        <v>118762.4750499002</v>
+        <v>109399.99999999999</v>
       </c>
       <c r="V271" s="70">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>365600</v>
       </c>
     </row>
     <row r="272" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -19641,14 +19845,14 @@
         <v>1200</v>
       </c>
       <c r="T272" s="71">
-        <v>21816.36726546906</v>
+        <v>475000</v>
       </c>
       <c r="U272" s="71">
-        <v>119960.07984031936</v>
+        <v>110000.00000000001</v>
       </c>
       <c r="V272" s="72">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>365000</v>
       </c>
     </row>
     <row r="274" spans="2:10" x14ac:dyDescent="0.2">
@@ -19661,7 +19865,7 @@
       </c>
       <c r="E274" s="11">
         <f>MAX(E172:E272)</f>
-        <v>136.15609274418372</v>
+        <v>5.0065532418204066</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>54</v>
@@ -19672,7 +19876,7 @@
       </c>
       <c r="J274" s="11">
         <f>MAX(J172:J272)</f>
-        <v>233.77481498264495</v>
+        <v>11.910386559318415</v>
       </c>
     </row>
     <row r="278" spans="2:10" x14ac:dyDescent="0.2">
@@ -19684,6 +19888,72 @@
       <c r="B279" s="1" t="str">
         <f>metricOfInterest</f>
         <v>Long-run fraction of clicks</v>
+      </c>
+    </row>
+    <row r="281" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B281" s="52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="282" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B282" s="1" t="str">
+        <f>CONCATENATE("Sensitivity to ",headEquivalent," in Control")</f>
+        <v>Sensitivity to button-click on home page in Control</v>
+      </c>
+    </row>
+    <row r="284" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B284" s="52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="285" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B285" s="1" t="str">
+        <f>CONCATENATE("number of ",headEquivalent," in Control")</f>
+        <v>number of button-click on home page in Control</v>
+      </c>
+    </row>
+    <row r="287" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B287" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C287" s="1">
+        <f>posteriorScalePower</f>
+        <v>500</v>
+      </c>
+      <c r="D287" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C288" s="1">
+        <f>C287</f>
+        <v>500</v>
+      </c>
+      <c r="D288" s="86">
+        <f>MAX(N172:O272)</f>
+        <v>662352.94117647049</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B290" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C290" s="1">
+        <f>numHeads_control</f>
+        <v>300</v>
+      </c>
+      <c r="D290" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C291" s="1">
+        <f>C290</f>
+        <v>300</v>
+      </c>
+      <c r="D291" s="86">
+        <f>MAX(T172:U272)</f>
+        <v>475000</v>
       </c>
     </row>
   </sheetData>

--- a/ABTest/ABDA.xlsx
+++ b/ABTest/ABDA.xlsx
@@ -8,54 +8,54 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/somikraha/PycharmProjects/DA Tools/ABTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9AA395-F461-7D41-BB8E-EB8EB64FB01F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D62CD5-527F-6A4B-AFBD-913DE0BA8475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{10366E7F-EA89-9541-A813-9FA5048F813E}"/>
+    <workbookView xWindow="3160" yWindow="-23520" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{10366E7F-EA89-9541-A813-9FA5048F813E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="License" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="alpha_control_original_prior">Sheet2!$J$162</definedName>
-    <definedName name="alpha_control_posterior">Sheet2!$J$167</definedName>
-    <definedName name="alpha_control_prior">Sheet2!$J$37</definedName>
-    <definedName name="alpha_experiment_original_prior">Sheet2!$G$162</definedName>
-    <definedName name="alpha_experiment_posterior">Sheet2!$E$167</definedName>
-    <definedName name="alpha_experiment_prior">Sheet2!$C$37</definedName>
-    <definedName name="beta_control_original_prior">Sheet2!$J$163</definedName>
-    <definedName name="beta_control_posterior">Sheet2!$J$168</definedName>
-    <definedName name="beta_control_prior">Sheet2!$J$38</definedName>
-    <definedName name="beta_experiment_original_prior">Sheet2!$G$163</definedName>
-    <definedName name="beta_experiment_posterior">Sheet2!$E$168</definedName>
-    <definedName name="beta_experiment_prior">Sheet2!$C$38</definedName>
-    <definedName name="choiceTable">Sheet2!$B$161:$D$164</definedName>
-    <definedName name="costOfLaunchingFeature">Sheet2!$E$19</definedName>
-    <definedName name="headEquivalent">Sheet2!$E$11</definedName>
-    <definedName name="maxHeadsInControl">Sheet2!$F$127</definedName>
-    <definedName name="maxPosteriorScalePower">Sheet2!$B$127</definedName>
-    <definedName name="maxPosteriorValue_control">Sheet2!$J$274</definedName>
-    <definedName name="maxPosteriorValue_experiment">Sheet2!$E$274</definedName>
-    <definedName name="maxPriorValue_control">Sheet2!$H$274</definedName>
-    <definedName name="maxPriorValue_experiment">Sheet2!$C$274</definedName>
-    <definedName name="mean_posterior_control">Sheet2!$J$89</definedName>
-    <definedName name="mean_posterior_experiment">Sheet2!$C$89</definedName>
-    <definedName name="mean_prior_control">Sheet2!$I$47</definedName>
-    <definedName name="mean_prior_experiment">Sheet2!$B$47</definedName>
-    <definedName name="metricOfInterest">Sheet2!$E$5</definedName>
-    <definedName name="numHeads_control">Sheet2!$I$78</definedName>
-    <definedName name="numHeads_experiment">Sheet2!$B$78</definedName>
-    <definedName name="numTosses_control">Sheet2!$I$74</definedName>
-    <definedName name="numTosses_experiment">Sheet2!$B$74</definedName>
-    <definedName name="numUsersAtLaunch">Sheet2!$E$21</definedName>
-    <definedName name="posteriorScalePower">Sheet2!$B$83</definedName>
-    <definedName name="priorScalePower_control">Sheet2!$I$44</definedName>
-    <definedName name="priorScalePower_experiment">Sheet2!$B$44</definedName>
-    <definedName name="priorType_control">Sheet2!$I$33</definedName>
-    <definedName name="priorType_experiment">Sheet2!$B$33</definedName>
-    <definedName name="tossEquivalent">Sheet2!$E$9</definedName>
-    <definedName name="unitOfDiversion">Sheet2!$E$7</definedName>
-    <definedName name="valueOfHead">Sheet2!$E$13</definedName>
+    <definedName name="alpha_control_original_prior">Model!$J$162</definedName>
+    <definedName name="alpha_control_posterior">Model!$J$167</definedName>
+    <definedName name="alpha_control_prior">Model!$J$37</definedName>
+    <definedName name="alpha_experiment_original_prior">Model!$G$162</definedName>
+    <definedName name="alpha_experiment_posterior">Model!$E$167</definedName>
+    <definedName name="alpha_experiment_prior">Model!$C$37</definedName>
+    <definedName name="beta_control_original_prior">Model!$J$163</definedName>
+    <definedName name="beta_control_posterior">Model!$J$168</definedName>
+    <definedName name="beta_control_prior">Model!$J$38</definedName>
+    <definedName name="beta_experiment_original_prior">Model!$G$163</definedName>
+    <definedName name="beta_experiment_posterior">Model!$E$168</definedName>
+    <definedName name="beta_experiment_prior">Model!$C$38</definedName>
+    <definedName name="choiceTable">Model!$B$161:$D$164</definedName>
+    <definedName name="costOfLaunchingFeature">Model!$E$19</definedName>
+    <definedName name="headEquivalent">Model!$E$11</definedName>
+    <definedName name="maxHeadsInControl">Model!$F$127</definedName>
+    <definedName name="maxPosteriorScalePower">Model!$B$127</definedName>
+    <definedName name="maxPosteriorValue_control">Model!$J$274</definedName>
+    <definedName name="maxPosteriorValue_experiment">Model!$E$274</definedName>
+    <definedName name="maxPriorValue_control">Model!$H$274</definedName>
+    <definedName name="maxPriorValue_experiment">Model!$C$274</definedName>
+    <definedName name="mean_posterior_control">Model!$J$89</definedName>
+    <definedName name="mean_posterior_experiment">Model!$C$89</definedName>
+    <definedName name="mean_prior_control">Model!$I$47</definedName>
+    <definedName name="mean_prior_experiment">Model!$B$47</definedName>
+    <definedName name="metricOfInterest">Model!$E$5</definedName>
+    <definedName name="numHeads_control">Model!$I$78</definedName>
+    <definedName name="numHeads_experiment">Model!$B$78</definedName>
+    <definedName name="numTosses_control">Model!$I$74</definedName>
+    <definedName name="numTosses_experiment">Model!$B$74</definedName>
+    <definedName name="numUsersAtLaunch">Model!$E$21</definedName>
+    <definedName name="posteriorScalePower">Model!$B$83</definedName>
+    <definedName name="priorScalePower_control">Model!$I$44</definedName>
+    <definedName name="priorScalePower_experiment">Model!$B$44</definedName>
+    <definedName name="priorType_control">Model!$I$33</definedName>
+    <definedName name="priorType_experiment">Model!$B$33</definedName>
+    <definedName name="tossEquivalent">Model!$E$9</definedName>
+    <definedName name="unitOfDiversion">Model!$E$7</definedName>
+    <definedName name="valueOfHead">Model!$E$13</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -97,49 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="82">
-  <si>
-    <t>License:</t>
-  </si>
-  <si>
-    <t>MIT License</t>
-  </si>
-  <si>
-    <t xml:space="preserve">© Somik Raha </t>
-  </si>
-  <si>
-    <t>Copyright 2020 Somik Raha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, </t>
-  </si>
-  <si>
-    <t>and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:</t>
-  </si>
-  <si>
-    <t>and to permit persons to whom the Software is furnished to do so, subject to the following conditions:</t>
-  </si>
-  <si>
-    <t>The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, </t>
-  </si>
-  <si>
-    <t>WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
-  </si>
-  <si>
-    <t>v1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>ABDA</t>
   </si>
@@ -344,6 +302,21 @@
   <si>
     <t>Number of heads in Control</t>
   </si>
+  <si>
+    <t>To the extent possible under law, Somik Raha has waived all copyright and related or neighboring rights to ABDA, a Decision Analytic A/B Test Model. This work is published from: United States.</t>
+  </si>
+  <si>
+    <t>Helpful Links</t>
+  </si>
+  <si>
+    <t>Github repo</t>
+  </si>
+  <si>
+    <t>Theory of Decision Analytic A/B testing</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
 </sst>
 </file>
 
@@ -359,7 +332,7 @@
     <numFmt numFmtId="169" formatCode="0.000"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -489,6 +462,36 @@
       <b/>
       <i/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color rgb="FF464646"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -687,11 +690,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -796,6 +800,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -808,10 +813,15 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -898,7 +908,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$172:$B$272</c:f>
+              <c:f>Model!$B$172:$B$272</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -1210,7 +1220,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$172:$C$272</c:f>
+              <c:f>Model!$C$172:$C$272</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="101"/>
@@ -1549,7 +1559,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$279</c:f>
+              <c:f>Model!$B$279</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1743,7 +1753,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$G$172:$G$272</c:f>
+              <c:f>Model!$G$172:$G$272</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -2055,7 +2065,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$H$172:$H$272</c:f>
+              <c:f>Model!$H$172:$H$272</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="101"/>
@@ -2394,7 +2404,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$279</c:f>
+              <c:f>Model!$B$279</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2588,7 +2598,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$172:$B$272</c:f>
+              <c:f>Model!$B$172:$B$272</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -2900,7 +2910,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$172:$C$272</c:f>
+              <c:f>Model!$C$172:$C$272</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="101"/>
@@ -3228,7 +3238,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$172:$B$272</c:f>
+              <c:f>Model!$B$172:$B$272</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -3540,7 +3550,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$172:$D$272</c:f>
+              <c:f>Model!$D$172:$D$272</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="101"/>
@@ -3879,7 +3889,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$279</c:f>
+              <c:f>Model!$B$279</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4073,7 +4083,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$G$172:$G$272</c:f>
+              <c:f>Model!$G$172:$G$272</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -4385,7 +4395,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$H$172:$H$272</c:f>
+              <c:f>Model!$H$172:$H$272</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="101"/>
@@ -4713,7 +4723,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$G$172:$G$272</c:f>
+              <c:f>Model!$G$172:$G$272</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -5025,7 +5035,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$I$172:$I$272</c:f>
+              <c:f>Model!$I$172:$I$272</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="101"/>
@@ -5364,7 +5374,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$279</c:f>
+              <c:f>Model!$B$279</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5567,7 +5577,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$N$170</c:f>
+              <c:f>Model!$N$170</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5590,7 +5600,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$M$172:$M$272</c:f>
+              <c:f>Model!$M$172:$M$272</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -5902,7 +5912,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$N$172:$N$272</c:f>
+              <c:f>Model!$N$172:$N$272</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="101"/>
@@ -6224,7 +6234,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$O$170</c:f>
+              <c:f>Model!$O$170</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6247,7 +6257,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$M$172:$M$272</c:f>
+              <c:f>Model!$M$172:$M$272</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -6559,7 +6569,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$O$172:$O$272</c:f>
+              <c:f>Model!$O$172:$O$272</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="101"/>
@@ -6881,7 +6891,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$P$171</c:f>
+              <c:f>Model!$P$171</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6904,7 +6914,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$M$172:$M$272</c:f>
+              <c:f>Model!$M$172:$M$272</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -7216,7 +7226,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$P$172:$P$272</c:f>
+              <c:f>Model!$P$172:$P$272</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="101"/>
@@ -7554,7 +7564,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$287:$C$288</c:f>
+              <c:f>Model!$C$287:$C$288</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -7569,7 +7579,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$287:$D$288</c:f>
+              <c:f>Model!$D$287:$D$288</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -7858,7 +7868,7 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>Sheet2!$B$282</c:f>
+          <c:f>Model!$B$282</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
@@ -7907,7 +7917,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$N$170</c:f>
+              <c:f>Model!$N$170</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7930,7 +7940,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$S$172:$S$272</c:f>
+              <c:f>Model!$S$172:$S$272</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -8242,7 +8252,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$T$172:$T$272</c:f>
+              <c:f>Model!$T$172:$T$272</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="101"/>
@@ -8564,7 +8574,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$O$170</c:f>
+              <c:f>Model!$O$170</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8587,7 +8597,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$S$172:$S$272</c:f>
+              <c:f>Model!$S$172:$S$272</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -8899,7 +8909,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$U$172:$U$272</c:f>
+              <c:f>Model!$U$172:$U$272</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="101"/>
@@ -9221,7 +9231,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$P$171</c:f>
+              <c:f>Model!$P$171</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9244,7 +9254,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$S$172:$S$272</c:f>
+              <c:f>Model!$S$172:$S$272</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -9556,7 +9566,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$V$172:$V$272</c:f>
+              <c:f>Model!$V$172:$V$272</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="101"/>
@@ -9894,7 +9904,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$290:$C$291</c:f>
+              <c:f>Model!$C$290:$C$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -9909,7 +9919,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$290:$D$291</c:f>
+              <c:f>Model!$D$290:$D$291</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -9950,7 +9960,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$285</c:f>
+              <c:f>Model!$B$285</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11281,6 +11291,73 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="CC0">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B20BA25F-7913-2841-8460-34EC243F62B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="1041400"/>
+          <a:ext cx="1117600" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -11809,10 +11886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DE582D-1DFA-7349-9B5C-952306D01B31}">
-  <dimension ref="B2:B19"/>
+  <dimension ref="B2:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11820,86 +11897,76 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" ht="31" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="6" spans="2:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="B6" s="87"/>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+    <row r="7" spans="2:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="B7" s="88" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="2:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="B9" s="91" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
         <v>1</v>
       </c>
+      <c r="C10" s="89" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+    <row r="11" spans="2:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
         <v>2</v>
       </c>
+      <c r="C11" s="90" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="8" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
+    <row r="12" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="5"/>
     </row>
-    <row r="9" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
+    <row r="14" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="5"/>
     </row>
-    <row r="16" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
+    <row r="16" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B19" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{2CC87532-2482-8E44-950C-4FA7CEAD0B40}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{501ED524-5320-ED4C-90E3-2B433FE87901}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -11936,123 +12003,123 @@
   <sheetData>
     <row r="2" spans="2:11" ht="93" x14ac:dyDescent="1.05">
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="E5" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
+      <c r="E5" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
     </row>
     <row r="7" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="E7" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
+      <c r="E7" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
     </row>
     <row r="9" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
+        <v>3</v>
+      </c>
+      <c r="E9" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
     </row>
     <row r="11" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
+        <v>5</v>
+      </c>
+      <c r="E11" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
     </row>
     <row r="13" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="82">
+        <v>7</v>
+      </c>
+      <c r="E13" s="83">
         <v>1</v>
       </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
     </row>
     <row r="15" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
+        <v>8</v>
+      </c>
+      <c r="E15" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
     </row>
     <row r="17" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
+        <v>10</v>
+      </c>
+      <c r="E17" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
     </row>
     <row r="19" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="83">
+        <v>12</v>
+      </c>
+      <c r="E19" s="84">
         <v>20000</v>
       </c>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
     </row>
     <row r="21" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="str">
         <f>CONCATENATE("Number of ",unitOfDiversion," at launch")</f>
         <v>Number of users at launch</v>
       </c>
-      <c r="E21" s="84">
+      <c r="E21" s="85">
         <v>1000000</v>
       </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
     </row>
     <row r="22" spans="2:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B23" s="81" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E23" s="11"/>
     </row>
@@ -12089,46 +12156,46 @@
     </row>
     <row r="29" spans="2:11" ht="93" x14ac:dyDescent="1.05">
       <c r="B29" s="6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="14" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="26" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:10" ht="26" x14ac:dyDescent="0.3">
       <c r="B36" s="44" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C36" s="42"/>
       <c r="I36" s="44" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J36" s="42"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="24" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C37" s="49">
         <f>(alpha_experiment_original_prior + beta_experiment_original_prior) * mean_prior_experiment * priorScalePower_experiment</f>
         <v>19</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J37" s="25">
         <f>(alpha_control_original_prior + beta_control_original_prior) * mean_prior_control * priorScalePower_control</f>
@@ -12137,14 +12204,14 @@
     </row>
     <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="26" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C38" s="50">
         <f xml:space="preserve"> (beta_experiment_original_prior  + alpha_experiment_original_prior  - (alpha_experiment_original_prior + beta_experiment_original_prior) * mean_prior_experiment) * priorScalePower_experiment</f>
         <v>1</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J38" s="27">
         <f xml:space="preserve"> (beta_control_original_prior  + alpha_control_original_prior  - (alpha_control_original_prior + beta_control_original_prior) * mean_prior_control) * priorScalePower_control</f>
@@ -12159,14 +12226,14 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C40" s="11">
         <f>alpha_experiment_prior/(alpha_experiment_prior+beta_experiment_prior)</f>
         <v>0.95</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J40" s="11">
         <f>alpha_control_prior/(alpha_control_prior+beta_control_prior)</f>
@@ -12175,14 +12242,14 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C41" s="32">
         <f xml:space="preserve"> (alpha_experiment_prior * beta_experiment_prior) / ((alpha_experiment_prior+beta_experiment_prior)^2 * (1+alpha_experiment_prior+beta_experiment_prior))</f>
         <v>2.2619047619047618E-3</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="J41" s="32">
         <f xml:space="preserve"> (alpha_control_prior * beta_control_prior) / ((alpha_control_prior+beta_control_prior)^2 * (1+alpha_control_prior+beta_control_prior))</f>
@@ -12191,10 +12258,10 @@
     </row>
     <row r="43" spans="2:10" ht="26" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="26" x14ac:dyDescent="0.3">
@@ -12220,10 +12287,10 @@
     </row>
     <row r="46" spans="2:10" ht="26" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="26" x14ac:dyDescent="0.3">
@@ -12304,15 +12371,15 @@
     </row>
     <row r="71" spans="2:12" ht="93" x14ac:dyDescent="1.05">
       <c r="B71" s="6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="2:12" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="14" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="26" x14ac:dyDescent="0.3">
@@ -12361,7 +12428,7 @@
     </row>
     <row r="82" spans="2:10" ht="26" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="26" x14ac:dyDescent="0.3">
@@ -12372,18 +12439,18 @@
     <row r="84" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="2:10" ht="26" x14ac:dyDescent="0.3">
       <c r="B85" s="44" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C85" s="45"/>
       <c r="D85" s="42"/>
       <c r="I85" s="44" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J85" s="42"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B86" s="24" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C86" s="54">
         <f>alpha_experiment_posterior</f>
@@ -12391,7 +12458,7 @@
       </c>
       <c r="D86" s="25"/>
       <c r="I86" s="24" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J86" s="49">
         <f>alpha_control_posterior</f>
@@ -12400,7 +12467,7 @@
     </row>
     <row r="87" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="26" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C87" s="55">
         <f>beta_experiment_posterior</f>
@@ -12408,7 +12475,7 @@
       </c>
       <c r="D87" s="27"/>
       <c r="I87" s="26" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J87" s="50">
         <f>beta_control_posterior</f>
@@ -12421,14 +12488,14 @@
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C89" s="32">
         <f>alpha_experiment_posterior/(alpha_experiment_posterior+beta_experiment_posterior)</f>
         <v>0.495</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J89" s="32">
         <f>alpha_control_posterior/(alpha_control_posterior++beta_control_posterior)</f>
@@ -12437,14 +12504,14 @@
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C90" s="31">
         <f xml:space="preserve"> (alpha_experiment_posterior * beta_experiment_posterior) / ((alpha_experiment_posterior+beta_experiment_posterior)^2 * (1+alpha_experiment_posterior+beta_experiment_posterior))</f>
         <v>6.0969512195121964E-3</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="J90" s="31">
         <f xml:space="preserve"> (alpha_control_posterior * beta_control_posterior) / ((alpha_control_posterior+beta_control_posterior)^2 * (1+alpha_control_posterior+beta_control_posterior))</f>
@@ -12455,7 +12522,7 @@
     <row r="111" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="112" spans="2:14" ht="26" x14ac:dyDescent="0.3">
       <c r="B112" s="15" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C112" s="45"/>
       <c r="D112" s="45"/>
@@ -12463,7 +12530,7 @@
       <c r="F112" s="45"/>
       <c r="G112" s="42"/>
       <c r="I112" s="15" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="J112" s="45"/>
       <c r="K112" s="45"/>
@@ -12557,7 +12624,7 @@
     </row>
     <row r="115" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B115" s="21" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C115" s="63">
         <f>C114*valueOfHead*numUsersAtLaunch</f>
@@ -12580,7 +12647,7 @@
         <v>647427.06100543751</v>
       </c>
       <c r="I115" s="21" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="J115" s="63">
         <f>J114*valueOfHead*numUsersAtLaunch</f>
@@ -12606,33 +12673,33 @@
     <row r="116" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="117" spans="2:14" ht="26" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C117" s="65">
         <f>mean_posterior_experiment*valueOfHead*numUsersAtLaunch</f>
         <v>495000</v>
       </c>
       <c r="E117" s="78" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F117" s="45"/>
       <c r="G117" s="42"/>
       <c r="I117" s="8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="J117" s="65">
         <f>mean_posterior_control*valueOfHead*numUsersAtLaunch</f>
         <v>65000</v>
       </c>
       <c r="L117" s="78" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="M117" s="45"/>
       <c r="N117" s="42"/>
     </row>
     <row r="118" spans="2:14" ht="26" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C118" s="64">
         <f>costOfLaunchingFeature</f>
@@ -12644,10 +12711,10 @@
       </c>
       <c r="F118" s="29"/>
       <c r="G118" s="80" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I118" s="73" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="L118" s="79" t="str">
         <f>metricOfInterest</f>
@@ -12655,12 +12722,12 @@
       </c>
       <c r="M118" s="29"/>
       <c r="N118" s="80" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="119" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B119" s="8" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C119" s="64">
         <f>C117-C118</f>
@@ -12676,7 +12743,7 @@
         <v>$343,047 to $647,427</v>
       </c>
       <c r="I119" s="73" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="L119" s="57" t="str">
         <f>CONCATENATE(ROUND(J114,3)," to ",ROUND(N114,3))</f>
@@ -12690,7 +12757,7 @@
     </row>
     <row r="120" spans="2:14" ht="26" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C120" s="64">
         <f>C119-J117</f>
@@ -12700,15 +12767,15 @@
     <row r="121" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="124" spans="2:14" ht="93" x14ac:dyDescent="1.05">
       <c r="B124" s="6" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="2:14" ht="26" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="2:14" ht="24" x14ac:dyDescent="0.3">
@@ -12722,27 +12789,27 @@
     <row r="156" spans="2:2" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="158" spans="2:2" ht="93" x14ac:dyDescent="1.05">
       <c r="B158" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="161" spans="2:22" ht="26" x14ac:dyDescent="0.3">
       <c r="B161" s="15" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F161" s="44" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G161" s="42"/>
       <c r="H161" s="29"/>
       <c r="I161" s="44" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J161" s="42"/>
       <c r="K161" s="29"/>
@@ -12750,7 +12817,7 @@
     </row>
     <row r="162" spans="2:22" ht="26" x14ac:dyDescent="0.3">
       <c r="B162" s="18" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C162" s="19">
         <v>1</v>
@@ -12759,7 +12826,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G162" s="46">
         <f>VLOOKUP(priorType_experiment,choiceTable,2,FALSE)</f>
@@ -12767,7 +12834,7 @@
       </c>
       <c r="H162" s="29"/>
       <c r="I162" s="18" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J162" s="46">
         <f>VLOOKUP(priorType_control,choiceTable,2,FALSE)</f>
@@ -12778,7 +12845,7 @@
     </row>
     <row r="163" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B163" s="18" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C163" s="19">
         <v>5</v>
@@ -12787,7 +12854,7 @@
         <v>5</v>
       </c>
       <c r="F163" s="21" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G163" s="47">
         <f>VLOOKUP(priorType_experiment,choiceTable,3,FALSE)</f>
@@ -12795,7 +12862,7 @@
       </c>
       <c r="H163" s="29"/>
       <c r="I163" s="21" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J163" s="47">
         <f>VLOOKUP(priorType_control,choiceTable,3,FALSE)</f>
@@ -12806,7 +12873,7 @@
     </row>
     <row r="164" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B164" s="21" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C164" s="22">
         <v>2</v>
@@ -12822,46 +12889,46 @@
     </row>
     <row r="166" spans="2:22" ht="26" x14ac:dyDescent="0.3">
       <c r="B166" s="44" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C166" s="42"/>
       <c r="D166" s="44" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E166" s="42"/>
       <c r="G166" s="44" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H166" s="42"/>
       <c r="I166" s="44" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J166" s="42"/>
     </row>
     <row r="167" spans="2:22" ht="26" x14ac:dyDescent="0.3">
       <c r="B167" s="18" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C167" s="46">
         <f>alpha_experiment_prior</f>
         <v>19</v>
       </c>
       <c r="D167" s="18" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E167" s="46">
         <f>alpha_experiment_prior+numHeads_experiment/posteriorScalePower</f>
         <v>19.8</v>
       </c>
       <c r="G167" s="18" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H167" s="46">
         <f>alpha_control_prior</f>
         <v>2</v>
       </c>
       <c r="I167" s="18" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J167" s="46">
         <f>alpha_control_prior+numHeads_control/posteriorScalePower</f>
@@ -12870,28 +12937,28 @@
     </row>
     <row r="168" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B168" s="21" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C168" s="47">
         <f>beta_experiment_prior</f>
         <v>1</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E168" s="47">
         <f>numTosses_experiment/posteriorScalePower+alpha_experiment_prior+beta_experiment_prior-numHeads_experiment/posteriorScalePower-alpha_experiment_prior</f>
         <v>20.200000000000003</v>
       </c>
       <c r="G168" s="21" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H168" s="47">
         <f>beta_control_prior</f>
         <v>18</v>
       </c>
       <c r="I168" s="21" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J168" s="47">
         <f>numTosses_control/posteriorScalePower+alpha_control_prior+beta_control_prior-numHeads_control/posteriorScalePower-alpha_control_prior</f>
@@ -12905,60 +12972,60 @@
     </row>
     <row r="170" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B170" s="8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="L170" s="41"/>
       <c r="M170" s="45"/>
       <c r="N170" s="56" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O170" s="40" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="P170" s="42"/>
       <c r="R170" s="41"/>
       <c r="S170" s="45"/>
       <c r="T170" s="56" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="U170" s="40" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="V170" s="42"/>
     </row>
     <row r="171" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B171" s="39" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C171" s="40" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D171" s="56" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E171" s="43" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G171" s="39" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H171" s="40" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="I171" s="40" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J171" s="43" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="L171" s="76" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="M171" s="53" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="N171" s="69">
         <f>mean_posterior_experiment*valueOfHead*numUsersAtLaunch-costOfLaunchingFeature</f>
@@ -12969,13 +13036,13 @@
         <v>65000</v>
       </c>
       <c r="P171" s="77" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="R171" s="76" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="S171" s="53" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="T171" s="69">
         <f>mean_posterior_experiment*valueOfHead*numUsersAtLaunch-costOfLaunchingFeature</f>
@@ -12986,7 +13053,7 @@
         <v>65000</v>
       </c>
       <c r="V171" s="77" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="172" spans="2:22" x14ac:dyDescent="0.2">
@@ -13028,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="N172" s="69">
-        <f t="dataTable" ref="N172:O272" dt2D="0" dtr="0" r1="B83" ca="1"/>
+        <f t="dataTable" ref="N172:O272" dt2D="0" dtr="0" r1="B83"/>
         <v>21816.36726546906</v>
       </c>
       <c r="O172" s="69">
@@ -13046,7 +13113,7 @@
         <v>1</v>
       </c>
       <c r="T172" s="69">
-        <f t="dataTable" ref="T172:U272" dt2D="0" dtr="0" r1="I78"/>
+        <f t="dataTable" ref="T172:U272" dt2D="0" dtr="0" r1="I78" ca="1"/>
         <v>475000</v>
       </c>
       <c r="U172" s="69">
@@ -19857,7 +19924,7 @@
     </row>
     <row r="274" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B274" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C274" s="11">
         <f>MAX(C172:C272)</f>
@@ -19868,7 +19935,7 @@
         <v>5.0065532418204066</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H274" s="11">
         <f>MAX(H172:H272)</f>
@@ -19881,7 +19948,7 @@
     </row>
     <row r="278" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B278" s="52" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="279" spans="2:10" x14ac:dyDescent="0.2">
@@ -19892,7 +19959,7 @@
     </row>
     <row r="281" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B281" s="52" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="282" spans="2:10" x14ac:dyDescent="0.2">
@@ -19903,7 +19970,7 @@
     </row>
     <row r="284" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B284" s="52" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="285" spans="2:10" x14ac:dyDescent="0.2">
@@ -19914,7 +19981,7 @@
     </row>
     <row r="287" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B287" s="52" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C287" s="1">
         <f>posteriorScalePower</f>
@@ -19929,14 +19996,14 @@
         <f>C287</f>
         <v>500</v>
       </c>
-      <c r="D288" s="86">
+      <c r="D288" s="82">
         <f>MAX(N172:O272)</f>
         <v>662352.94117647049</v>
       </c>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B290" s="52" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C290" s="1">
         <f>numHeads_control</f>
@@ -19951,7 +20018,7 @@
         <f>C290</f>
         <v>300</v>
       </c>
-      <c r="D291" s="86">
+      <c r="D291" s="82">
         <f>MAX(T172:U272)</f>
         <v>475000</v>
       </c>
